--- a/2019-06-16.xlsx
+++ b/2019-06-16.xlsx
@@ -14,13 +14,28 @@
   <sheets>
     <sheet name="目录" sheetId="28" r:id="rId1"/>
     <sheet name="返回格式说明" sheetId="29" r:id="rId2"/>
+    <sheet name="个人公司新增-更新维护" sheetId="30" r:id="rId3"/>
+    <sheet name="公司查询收藏简历记录" sheetId="31" r:id="rId4"/>
+    <sheet name="会员企业查询浏览简历历史" sheetId="32" r:id="rId5"/>
+    <sheet name="个人简历新增-更新维护" sheetId="33" r:id="rId6"/>
+    <sheet name="个人简历删除" sheetId="34" r:id="rId7"/>
+    <sheet name="简历-工作经历维护" sheetId="35" r:id="rId8"/>
+    <sheet name="简历-教育经历维护" sheetId="36" r:id="rId9"/>
+    <sheet name="简历-资格证书维护" sheetId="37" r:id="rId10"/>
+    <sheet name="个人简历详情" sheetId="38" r:id="rId11"/>
+    <sheet name="工作经历详情" sheetId="39" r:id="rId12"/>
+    <sheet name="教育经历详情" sheetId="42" r:id="rId13"/>
+    <sheet name="资格证书详情" sheetId="40" r:id="rId14"/>
+    <sheet name="职位新增-更新维护" sheetId="44" r:id="rId15"/>
+    <sheet name="职位详情" sheetId="45" r:id="rId16"/>
+    <sheet name="删除职位" sheetId="46" r:id="rId17"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="257">
   <si>
     <t>目录</t>
   </si>
@@ -142,96 +157,286 @@
     <t>没有权限</t>
   </si>
   <si>
-    <t>个人公司维护</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>个人简历维护</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1.个人简历增加</t>
+    <t>四</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人公司职位维护</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、职位删除</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口地址</t>
+  </si>
+  <si>
+    <t>请求方式</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>请求参数</t>
+  </si>
+  <si>
+    <t>返回参数</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>{
+    "header": {
+        "status": 2001,
+        "msg": "保存/更新成功",
+        "t": "2019-06-19 21:52:28"
+    },
+    "body": [ 
+            "id": 2,
+            "name": "xx",
+            "region": "四川省成都市武侯区"
+    ]
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>region</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://m.tianchiyueya.com:1888/tcyy/personalcompany/saveCompanyByVip</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人公司</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、公司查询收藏简历记录</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、公司增加/更新维护</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.会员企业查询浏览简历历史</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://m.tianchiyueya.com:1888/tcyy/personalcompany/queryViewLogs</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://m.tianchiyueya.com:1888/tcyy/personalcompany/queryCollectResumeRecords</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>personname</t>
+  </si>
+  <si>
+    <t>个人名称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>出生日期</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>expectregion</t>
+  </si>
+  <si>
+    <t>期望工作区域</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>家庭地址</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>telephone</t>
+  </si>
+  <si>
+    <t>联系电话</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrivaltime</t>
+  </si>
+  <si>
+    <t>到岗时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>rid</t>
+  </si>
+  <si>
+    <t>{
+    "header": {
+        "status": 2001,
+        "msg": "保存/更新成功",
+        "t": "2019-06-19 21:52:28"
+    },
+    "body": [ {"personname":"张麻子",
+"birthday":"1981-09-01","expectregion":"四川省成都市武侯区","address":"高升桥8号","telephone":"13000000000","arrivaltime":"2周内","sex":"1","rid":"1","viewtime":"2019-06-10"}  
+    ]
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>viewtime</t>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>简历编号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览日期</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+    "header": {
+        "status": 2001,
+        "msg": "保存/更新成功",
+        "t": "2019-06-19 21:52:28"
+    },
+    "body": [ 
+            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{"personname":"张三","arrivaltime":"2019-06-20","telephone":"13800011122","address":"武侯区东升路3号","delivertime":"2019-06-17","professional":"牙科主治医师"}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+    ]
+}</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>personname</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>delivertime</t>
+  </si>
+  <si>
+    <t>professional</t>
+  </si>
+  <si>
+    <t>发布的职位名称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>投递时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人公司新增/更新</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取收藏简历记录列表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询浏览简历历史列表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人简历新增/更新维护</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>http://m.tianchiyueya.com:1888/tcyy/</t>
     </r>
     <r>
       <rPr>
         <u/>
         <sz val="11"/>
-        <color rgb="FF800080"/>
+        <color rgb="FF0000FF"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>/修改</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2.工作经历增加</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF800080"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/修改</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3.教育经历增加</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF800080"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/修改</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4.职业证书增加</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF800080"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/修改</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>四</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人公司职位维护</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
+      <t>personalresume/savePersonalResume</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>intentposition</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>期望职位</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://m.tianchiyueya.com:1888/tcyy/personalresume/deletePersonalResume</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
     </r>
     <r>
       <rPr>
@@ -242,16 +447,1344 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>d</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人简历删除</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "header": {
+        "status": 2001,
+        "msg": "删除成功",
+        "t": "2019-06-19 21:52:28"
+    },
+    "body": []
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>简历-教育经历保存/更新维护</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>http://m.tianchiyueya.com:1888/tcyy/p</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ersonaleducation/savePersonEducationExp</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+    "header": {
+        "status": 2001,
+        "msg": "保存/更新成功",
+        "t": "2019-06-19 21:52:28"
+    },
+    "body": [ 
+            "id": 2,
+            "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>rid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">": </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,
+            "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>schoolname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>": "佛学院"
+    ]
+}</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>schoolname</t>
+  </si>
+  <si>
+    <t>学校名称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>简历编号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>http://m.tianchiyueya.com:1888/tcyy/</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>personalexperience/savePersonalExperience</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "header": {
+        "status": 2001,
+        "msg": "保存/更新成功",
+        "t": "2019-06-19 21:52:28"
+    },
+    "body": [ 
+            "id": 2,
+            "companyname": "xx"
+    ]
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>companyname</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>就职公司名称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+    "header": {
+        "status": 2001,
+        "msg": "保存/更新成功",
+        "t": "2019-06-19 21:52:28"
+    },
+    "body": [ 
+            "id": 2,
+            "intentposition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>": "主治医师",
+            "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>expectregion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>": "四川省成都市武侯区"
+    ]
+}</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>expectregion</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>期望工作区域</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>qualifyname</t>
+  </si>
+  <si>
+    <t>qualifyname</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>证书名称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+    "header": {
+        "status": 2001,
+        "msg": "保存/更新成功",
+        "t": "2019-06-19 21:52:28"
+    },
+    "body": [ 
+            "id": 2,
+            "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>qualifyname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>": "医师执业资格证书"
+    ]
+}</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://m.tianchiyueya.com:1888/tcyy/personalqualification/savePersonalQualification</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>简历-工作经历新增/更新维护</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>简历-资格证书新增/更新维护</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.职位详情</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.工作经历详情</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.职业证书详情</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.教育经历详情</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.简历详情</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>http://m.tianchiyueya.com:1888/tcyy/</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>personalresume/getResumeDetail</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取个人简历详情</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> id </t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> personname</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> birthday </t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生年月日</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> expectregion </t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>期望工作区域</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> qualificationLis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> expList</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> eduList</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> address</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> emai</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>l</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> education</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> telephone</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>学历</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱地址</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> jobstatus </t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>在职状态</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> marriage</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>婚姻状况</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> wages </t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>期望月薪</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> positiontype</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>职位类型</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> selfevaluation </t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>自我评价</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> jointime</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>参加工作时间</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> arrivaltime </t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>到岗时间</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> intentposition </t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>期望职位</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> worknature</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作性质</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> sex </t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ethnic </t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>民族</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> workexperience </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作年限</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>教育经历列表</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作经历列表</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>证书列表</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>http://m.tianchiyueya.com:1888/tcyy/p</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ersonalexperience/getPersonalExperienceDetail</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+    "header": {
+        "status": 2001,
+        "msg": "获取成功",
+        "t": "2019-06-19 21:52:28"
+    },
+    "body": [ 
+            'id':'id',
+            'personname':'personname',
+            'birthday': 'birthday',
+            'expectregion':'expectregion' ,
+            'telephone:'telephone' ,
+            'education':education' ,
+            'email':'email' ,
+            'jobstatus':'jobstatus' ,
+            'marriage':'marriage',
+            'wages':'wages' ,
+            'positiontype:'positiontype' ,
+            'selfevaluation':'selfevaluation' ,
+            'jointime':'jointime',
+            'arrivaltime':'arrivaltime' ,
+            'intentposition':'intentposition' ,
+            'worknature':'worknature' ,       
+            'sex' :'sex',
+            'ethnic':'ethnic',
+            'workexperience':'workexperience',
+            'address':'address',
+            'eduList' :[{}] ,
+            'expList' :[{}] 
+            'qualificationList':[{}] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+    ]
+}</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+    "header": {
+        "status": 2001,
+        "msg": "查询成功",
+        "t": "2019-06-19 21:52:28"
+    },
+    "body": [ 
+            'id':'id',
+            'companyname':'公司名称',
+            'positions': '所在职位',
+            'entrancedate':'入职日期' ,
+            'dimissiondate:'离职日期' ,
+            'workcontent':工作内容' ,
+            'rid':'简历编号' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+    ]
+}</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">id   </t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> id</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">companyname    </t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>positions</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在职位</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">entrancedate    </t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>入职日期</t>
+  </si>
+  <si>
+    <t>dimissiondate</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>离职日期</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>workcontent</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作内容</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">rid    </t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">简历编号 </t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司名称</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取个人简历-工作经历详情</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取个人简历-教育经历详情</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>http://m.tianchiyueya.com:1888/tcyy/p</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ersonaleducation/getPersonalEducationDetail</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+    "header": {
+        "status": 2001,
+        "msg": "查询成功",
+        "t": "2019-06-19 21:52:28"
+    },
+    "body": [ 
+            'id':'id',
+            'education':'学历',
+            'schoolname': '学校名称',
+            'profession':'专业名称',
+            'entrancedate':'入学日期' ,
+            'graduatedate:'毕业日期' ,
+            'rid':'简历编号' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+    ]
+}</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>graduatedate</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>毕业日期</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>入学日期</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">schoolname   </t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>学校名称</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>education</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>profession</t>
+  </si>
+  <si>
+    <t>专业名称</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取个人简历-资格证书详情</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://m.tianchiyueya.com:1888/tcyy/personalqualification/getPersonalQualificationDetail</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+    "header": {
+        "status": 2001,
+        "msg": "查询成功",
+        "t": "2019-06-19 21:52:28"
+    },
+    "body": [ 
+            'id':'id',
+            'qualifyname':'证书名称',
+            'qualifyurl': '证书url',
+            'qualify_time':'取得证书日期' , 
+            'rid':'简历编号' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+    ]
+}</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>证书名称</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>qualifyurl</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">qualify_time  </t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得证书日期</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>证书url</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4.职业证书增加</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/修改</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3.教育经历增加</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/修改</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2.工作经历增加</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/修改</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.个人简历增加</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/修改</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.个人简历删除</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>职位信息保存/更新维护</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d - 更新时有</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">positiontype 
+</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>professional</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">region </t>
+  </si>
+  <si>
+    <t xml:space="preserve">region </t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>descriptions</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">nums </t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>nature</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">experience  
+</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>cid</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司编号</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求工作经验</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司工作地址</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>职位属性</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求学历</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>职位名称</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://m.tianchiyueya.com:1888/tcyy/personalposition/saveCompanyPositionByVIP</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://m.tianchiyueya.com:1888/tcyy/personalposition/getPositionDetail</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">experience  </t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>positiontype</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">d </t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+    "header": {
+        "status": 2001,
+        "msg": "查询成功",
+        "t": "2019-06-19 21:52:28"
+    },
+    "body": [ 
+                "id":"id",
+           "positiontype":"  职位类型",
+           "professional":"  职位名称",
+           "region":"  区域",
+           "descriptions":"  描述",
+           "nums  数量",
+           "education   要求学历",
+           "nature":"  职位属性",
+           "address":" 公司工作地址",
+           "experience":"":"要求工作经验",
+           "cid":"公司编号"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+    ]
+}</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+    "header": {
+        "status": 2001,
+        "msg": "保存/更新成功",
+        "t": "2019-06-19 21:52:28"
+    },
+    "body": [ 
+           "id":"id",
+           "professional":"  职位名称",
+           "region":"  区域"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+    ]
+}</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>http://m.tianchiyueya.com:1888/tcyy/</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>personalposition/deletePosition</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除职位</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取职位详情</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+    "header": {
+        "status": 2001,
+        "msg": "操作成功",
+        "t": "2019-06-19 21:52:28"
+    },
+    "body": [ 
+            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+    ]
+}</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>rid</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>qualifyname</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>qualify_time</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取证书日期</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时需要</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时有</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">createrdate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">contacts </t>
+  </si>
+  <si>
+    <t xml:space="preserve">email </t>
+  </si>
+  <si>
+    <t xml:space="preserve">people </t>
+  </si>
+  <si>
+    <t xml:space="preserve">address </t>
+  </si>
+  <si>
+    <t xml:space="preserve">authurl </t>
+  </si>
+  <si>
+    <t xml:space="preserve">registermoney </t>
+  </si>
+  <si>
+    <t xml:space="preserve">companyinfo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">offcialcurl </t>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时有</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司名称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>成立日期</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱地址</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员规模</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业执照url</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册资金</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司简介</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网地址</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>.职位添加/修改</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、职位删除</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>五</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -259,7 +1792,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,6 +1866,45 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF008000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -365,7 +1937,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -393,12 +1965,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -407,6 +1973,54 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -714,10 +2328,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="30.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -745,79 +2359,2267 @@
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="11" t="s">
+    <row r="8" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="25" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="25" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="25" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="25" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="25" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="12" t="s">
+      <c r="B17" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="12" t="s">
+    <row r="18" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="25" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="11"/>
+    <row r="20" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="11"/>
+      <c r="B20" s="25" t="s">
+        <v>98</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" location="返回格式说明!A1" display="返回格式说明"/>
-    <hyperlink ref="B3" location="发送验证码!A1" display="发送验证码"/>
-    <hyperlink ref="B5" location="电话注册!A1" display="1.电话注册"/>
-    <hyperlink ref="B6" location="手机登录!A1" display="2.手机登录"/>
-    <hyperlink ref="B7" location="微信、QQ登录!A1" display="3.微信、QQ登录"/>
-    <hyperlink ref="B8" location="重置密码!A1" display="4.重置密码"/>
+    <hyperlink ref="B8" location="'个人简历新增-更新维护'!A1" display="1.个人简历增加/修改"/>
+    <hyperlink ref="B9" location="'简历-工作经历维护'!A1" display="2.工作经历增加/修改"/>
+    <hyperlink ref="B10" location="'简历-教育经历维护'!A1" display="3.教育经历增加/修改"/>
+    <hyperlink ref="B11" location="'简历-资格证书维护'!A1" display="4.职业证书增加/修改"/>
+    <hyperlink ref="B15" location="个人简历详情!A1" display="8.简历详情"/>
+    <hyperlink ref="B14" location="教育经历详情!A1" display="7.教育经历详情"/>
+    <hyperlink ref="B13" location="资格证书详情!A1" display="6.职业证书详情"/>
+    <hyperlink ref="B12" location="工作经历详情!A1" display="5.工作经历详情"/>
+    <hyperlink ref="B16" location="个人简历删除!A1" display="9.个人简历删除"/>
+    <hyperlink ref="B4" location="'个人公司新增-更新维护'!A1" display="1、公司增加/更新维护"/>
+    <hyperlink ref="B5" location="公司查询收藏简历记录!A1" display="2、公司查询收藏简历记录"/>
+    <hyperlink ref="B6" location="会员企业查询浏览简历历史!A1" display="3.会员企业查询浏览简历历史"/>
+    <hyperlink ref="B18" location="'职位新增-更新维护'!A1" display="1.职位添加/修改"/>
+    <hyperlink ref="B19" location="删除职位!A1" display="2、职位删除"/>
+    <hyperlink ref="B20" location="职位详情!A1" display="3.职位详情"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet10"/>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="20"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="20"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+    </row>
+    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+    </row>
+    <row r="19" spans="1:7" ht="101.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+    </row>
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:XFD2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B12:G19"/>
+  </mergeCells>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="A1" location="目录!A35" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:C39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="7" max="7" width="55.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="20"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+    </row>
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+    </row>
+    <row r="15" spans="1:8" ht="274.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B19" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B20" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B21" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B22" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B23" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B24" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B25" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B26" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B27" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B28" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B29" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B30" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B31" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B32" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B33" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B34" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B35" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B36" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B37" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B38" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B39" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:XFD2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B8:G15"/>
+  </mergeCells>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="A1" location="目录!A35" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="7" max="7" width="55.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="20"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+    </row>
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+    </row>
+    <row r="15" spans="1:8" ht="83.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B19" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B20" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B21" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B22" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B23" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:XFD2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B8:G15"/>
+  </mergeCells>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="A1" location="目录!A35" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="7" max="7" width="55.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="24" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="20"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+    </row>
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+    </row>
+    <row r="15" spans="1:8" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B19" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B20" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B21" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B22" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B23" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:XFD2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B8:G15"/>
+  </mergeCells>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="A1" location="目录!A35" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="7" max="7" width="55.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="24" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="20"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+    </row>
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+    </row>
+    <row r="15" spans="1:8" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B19" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B20" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B21" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:XFD2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B8:G15"/>
+  </mergeCells>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="A1" location="目录!A35" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet11"/>
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.875" customWidth="1"/>
+    <col min="7" max="7" width="35.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="24" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="20"/>
+    </row>
+    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="20"/>
+    </row>
+    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+    </row>
+    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+    </row>
+    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+    </row>
+    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+    </row>
+    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+    </row>
+    <row r="24" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+    </row>
+    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B28" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:XFD2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B17:G24"/>
+  </mergeCells>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="A1" location="目录!A35" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="7" max="7" width="55.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="24" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="20"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+    </row>
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+    </row>
+    <row r="15" spans="1:8" ht="150.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B19" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B20" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B21" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B22" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B23" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B24" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B25" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B26" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B27" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:XFD2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B8:G15"/>
+  </mergeCells>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="A1" location="目录!A35" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="7" max="7" width="55.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="24" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="20"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+    </row>
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+    </row>
+    <row r="15" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="C17" s="23"/>
+    </row>
+    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:XFD2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B8:G15"/>
+  </mergeCells>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="A1" location="目录!A35" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -829,8 +4631,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:7" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="12" t="s">
         <v>2</v>
       </c>
     </row>
@@ -838,70 +4640,70 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
@@ -949,4 +4751,1653 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>238</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>240</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>241</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>242</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>243</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="20"/>
+    </row>
+    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="20"/>
+    </row>
+    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+    </row>
+    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+    </row>
+    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+    </row>
+    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+    </row>
+    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+    </row>
+    <row r="25" spans="1:8" ht="101.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+    </row>
+    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:XFD2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B18:G25"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="A1" location="目录!A35" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="20"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+    </row>
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+    </row>
+    <row r="15" spans="1:8" ht="101.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:XFD2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B8:G15"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="A1" location="目录!A35" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="20"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+    </row>
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+    </row>
+    <row r="15" spans="1:8" ht="101.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:XFD2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B8:G15"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="A1" location="目录!A35" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:H41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="20"/>
+    </row>
+    <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="20"/>
+    </row>
+    <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+    </row>
+    <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+    </row>
+    <row r="34" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+    </row>
+    <row r="35" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+    </row>
+    <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+    </row>
+    <row r="37" spans="1:7" ht="101.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+    </row>
+    <row r="38" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:XFD2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B30:G37"/>
+  </mergeCells>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="A1" location="目录!A35" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="20"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+    </row>
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+    </row>
+    <row r="13" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+    </row>
+    <row r="14" spans="1:8" ht="1.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+    </row>
+    <row r="15" spans="1:8" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:XFD2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B8:G15"/>
+  </mergeCells>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="A1" location="目录!A35" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="20"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="20"/>
+    </row>
+    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+    </row>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+    </row>
+    <row r="20" spans="1:7" ht="101.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+    </row>
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:XFD2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B13:G20"/>
+  </mergeCells>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="A1" location="目录!A35" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="20"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="20"/>
+    </row>
+    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+    </row>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+    </row>
+    <row r="20" spans="1:7" ht="101.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+    </row>
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:XFD2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B13:G20"/>
+  </mergeCells>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="A1" location="目录!A35" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/2019-06-16.xlsx
+++ b/2019-06-16.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tcyy\tcyy.bate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\ttyc\tcyy.bate0530\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,13 +29,15 @@
     <sheet name="职位新增-更新维护" sheetId="44" r:id="rId15"/>
     <sheet name="职位详情" sheetId="45" r:id="rId16"/>
     <sheet name="删除职位" sheetId="46" r:id="rId17"/>
+    <sheet name="公司-查询简历列表" sheetId="47" r:id="rId18"/>
+    <sheet name="会员-查询职位列表" sheetId="48" r:id="rId19"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="301">
   <si>
     <t>目录</t>
   </si>
@@ -1784,6 +1786,271 @@
         <scheme val="minor"/>
       </rPr>
       <t>.职位添加/修改</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10、查询职位列表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>http://m.tianchiyueya.com:1888/tcyy/personal</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>resume/queryPersonalResumeList</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>page</t>
+  </si>
+  <si>
+    <t>页码</t>
+  </si>
+  <si>
+    <t>limit</t>
+  </si>
+  <si>
+    <t>每页显示条数</t>
+  </si>
+  <si>
+    <t>region</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+    "header": {
+        "status": 2001,
+        "msg": "查询成功",
+        "t": "2019-06-19 21:52:28"
+    },
+    "body": [ 
+             "data": [
+            {
+              "id":"",
+              "personname":"",
+              "birthday":"",
+              "education":"",
+              "jobstatus":"",
+              "expectregion":"",
+              "telephone":"",
+              "intentposition":""
+            }
+        ],
+        "page": 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+    ]
+}</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>数据ID</t>
+  </si>
+  <si>
+    <t>personname</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">birthday </t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">expectregion </t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">intentposition </t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>telephone</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>education</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">jobstatus </t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询获取简历列表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://m.tianchiyueya.com:1888/tcyy/personalposition/queryPositionByCondition</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>职位</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>职位发布结束时间</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>职位发布开始时间</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>begintime</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>endtime</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询获取职位列表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司名称</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱地址</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作地址</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+    "header": {
+        "status": 2001,
+        "msg": "查询成功",
+        "t": "2019-06-19 21:52:28"
+    },
+    "body": [ 
+             "data": [
+            {
+                "id":"",
+               "name":"",
+               "email":"",
+               "address":"",
+               "positiontype":"",
+               "region":"",
+               "professional":"",
+               "status":"",
+               "wages":"",
+               "experience":"",
+               "education":""
+            }
+        ],
+        "page": 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+    ]
+}</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>region</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>职位类型</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">professional </t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>职位名称</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">wages </t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>薪资范畴</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>experience</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>学历</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作经验</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.查询简历列表</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1937,7 +2204,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1977,35 +2244,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -2021,6 +2270,30 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2328,10 +2601,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="30.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2379,79 +2652,89 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
+      <c r="B7" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B8" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="25" t="s">
+    <row r="9" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="19" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="25" t="s">
+    <row r="10" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="19" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="25" t="s">
+    <row r="11" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="19" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="25" t="s">
+    <row r="12" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="19" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="25" t="s">
+    <row r="13" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="19" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="25" t="s">
+    <row r="14" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="19" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="25" t="s">
+    <row r="15" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="25" t="s">
+    <row r="16" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="19" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="25" t="s">
+    <row r="17" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="19" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="11" t="s">
+    <row r="18" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="19" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B19" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="25" t="s">
+    <row r="20" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="19" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="25" t="s">
+    <row r="21" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="11"/>
-      <c r="B20" s="25" t="s">
+    <row r="22" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="11"/>
+      <c r="B22" s="19" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2459,21 +2742,23 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" location="返回格式说明!A1" display="返回格式说明"/>
-    <hyperlink ref="B8" location="'个人简历新增-更新维护'!A1" display="1.个人简历增加/修改"/>
-    <hyperlink ref="B9" location="'简历-工作经历维护'!A1" display="2.工作经历增加/修改"/>
-    <hyperlink ref="B10" location="'简历-教育经历维护'!A1" display="3.教育经历增加/修改"/>
-    <hyperlink ref="B11" location="'简历-资格证书维护'!A1" display="4.职业证书增加/修改"/>
-    <hyperlink ref="B15" location="个人简历详情!A1" display="8.简历详情"/>
-    <hyperlink ref="B14" location="教育经历详情!A1" display="7.教育经历详情"/>
-    <hyperlink ref="B13" location="资格证书详情!A1" display="6.职业证书详情"/>
-    <hyperlink ref="B12" location="工作经历详情!A1" display="5.工作经历详情"/>
-    <hyperlink ref="B16" location="个人简历删除!A1" display="9.个人简历删除"/>
+    <hyperlink ref="B9" location="'个人简历新增-更新维护'!A1" display="1.个人简历增加/修改"/>
+    <hyperlink ref="B10" location="'简历-工作经历维护'!A1" display="2.工作经历增加/修改"/>
+    <hyperlink ref="B11" location="'简历-教育经历维护'!A1" display="3.教育经历增加/修改"/>
+    <hyperlink ref="B12" location="'简历-资格证书维护'!A1" display="4.职业证书增加/修改"/>
+    <hyperlink ref="B16" location="个人简历详情!A1" display="8.简历详情"/>
+    <hyperlink ref="B15" location="教育经历详情!A1" display="7.教育经历详情"/>
+    <hyperlink ref="B14" location="资格证书详情!A1" display="6.职业证书详情"/>
+    <hyperlink ref="B13" location="工作经历详情!A1" display="5.工作经历详情"/>
+    <hyperlink ref="B17" location="个人简历删除!A1" display="9.个人简历删除"/>
     <hyperlink ref="B4" location="'个人公司新增-更新维护'!A1" display="1、公司增加/更新维护"/>
     <hyperlink ref="B5" location="公司查询收藏简历记录!A1" display="2、公司查询收藏简历记录"/>
     <hyperlink ref="B6" location="会员企业查询浏览简历历史!A1" display="3.会员企业查询浏览简历历史"/>
-    <hyperlink ref="B18" location="'职位新增-更新维护'!A1" display="1.职位添加/修改"/>
-    <hyperlink ref="B19" location="删除职位!A1" display="2、职位删除"/>
-    <hyperlink ref="B20" location="职位详情!A1" display="3.职位详情"/>
+    <hyperlink ref="B20" location="'职位新增-更新维护'!A1" display="1.职位添加/修改"/>
+    <hyperlink ref="B21" location="删除职位!A1" display="2、职位删除"/>
+    <hyperlink ref="B22" location="职位详情!A1" display="3.职位详情"/>
+    <hyperlink ref="B7" location="'公司-查询简历列表'!A1" display="4.查询简历列表"/>
+    <hyperlink ref="B18" location="'会员-查询职位列表'!A1" display="10、查询职位列表"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2497,12 +2782,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:8" s="22" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="25" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2510,20 +2795,20 @@
       <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="8"/>
@@ -2536,39 +2821,39 @@
       <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="17" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="17" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="17" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="17" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="17" t="s">
         <v>231</v>
       </c>
     </row>
@@ -2578,72 +2863,72 @@
       <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="20"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="20"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
     </row>
     <row r="19" spans="1:7" ht="101.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2658,10 +2943,10 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="17" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2685,7 +2970,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:C39"/>
+      <selection activeCell="B18" sqref="B18:C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2696,12 +2981,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:8" s="22" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="25" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2709,20 +2994,20 @@
       <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="8"/>
@@ -2735,7 +3020,7 @@
       <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="17" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2745,261 +3030,261 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="20"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="15"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="20"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
     </row>
     <row r="15" spans="1:8" ht="274.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="17" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="17" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="17" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="17" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="17" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="17" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="17" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="17" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="17" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="17" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="17" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="17" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="17" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="17" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="17" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="17" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="17" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C34" s="17" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C35" s="17" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C36" s="17" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="17" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="17" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="C39" s="17" t="s">
         <v>151</v>
       </c>
     </row>
@@ -3034,12 +3319,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:8" s="22" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="25" t="s">
         <v>169</v>
       </c>
     </row>
@@ -3047,20 +3332,20 @@
       <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="8"/>
@@ -3073,7 +3358,7 @@
       <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="17" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3083,199 +3368,199 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="20"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="15"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="20"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
     </row>
     <row r="15" spans="1:8" ht="83.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="17" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="17" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="17" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="17" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="17" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="17" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3308,12 +3593,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:8" s="22" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="25" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3321,20 +3606,20 @@
       <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="8"/>
@@ -3347,7 +3632,7 @@
       <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="17" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3357,199 +3642,199 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="20"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="15"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="20"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
     </row>
     <row r="15" spans="1:8" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="17" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="17" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="17" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="17" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="17" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="17" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3582,12 +3867,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:8" s="22" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="25" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3595,20 +3880,20 @@
       <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="8"/>
@@ -3621,7 +3906,7 @@
       <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="17" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3631,183 +3916,183 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="20"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="15"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="20"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
     </row>
     <row r="15" spans="1:8" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="17" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="17" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="17" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="17" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3841,12 +4126,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:7" s="22" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="25" t="s">
         <v>194</v>
       </c>
     </row>
@@ -3854,20 +4139,20 @@
       <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="26" t="s">
         <v>215</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="8"/>
@@ -3880,87 +4165,87 @@
       <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="17" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="17" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="17" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="17" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="17" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="17" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="17" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="17" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="17" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="17" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="17" t="s">
         <v>206</v>
       </c>
     </row>
@@ -3969,98 +4254,98 @@
       <c r="A17" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="20"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="15"/>
     </row>
     <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="20"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="15"/>
     </row>
     <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
     </row>
     <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
     </row>
     <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
     </row>
     <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
     </row>
     <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
     </row>
     <row r="24" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
     </row>
     <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="17" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="17" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="17" t="s">
         <v>213</v>
       </c>
     </row>
@@ -4095,12 +4380,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:8" s="22" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="25" t="s">
         <v>225</v>
       </c>
     </row>
@@ -4108,20 +4393,20 @@
       <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="8"/>
@@ -4134,7 +4419,7 @@
       <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="17" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4144,215 +4429,215 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="20"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="15"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="20"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
     </row>
     <row r="15" spans="1:8" ht="150.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="17" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="17" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="17" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="17" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="17" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="17" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="17" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="17" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="17" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="17" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="17" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4385,12 +4670,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:8" s="22" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="25" t="s">
         <v>224</v>
       </c>
     </row>
@@ -4398,20 +4683,20 @@
       <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="8"/>
@@ -4424,7 +4709,7 @@
       <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="17" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4434,179 +4719,736 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="20"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="15"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="20"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
     </row>
     <row r="15" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="20" t="s">
         <v>227</v>
       </c>
-      <c r="C17" s="23"/>
+      <c r="C17" s="17"/>
     </row>
     <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23" t="s">
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:XFD2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B8:G15"/>
+  </mergeCells>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="A1" location="目录!A35" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.75" customWidth="1"/>
+    <col min="7" max="7" width="55.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="22" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="25" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>261</v>
+      </c>
+      <c r="C6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+    </row>
+    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+    </row>
+    <row r="17" spans="1:7" ht="196.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>266</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C20" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C21" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B22" s="17"/>
+      <c r="C22" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B23" s="17"/>
+      <c r="C23" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B24" s="17"/>
+      <c r="C24" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B25" s="17"/>
+      <c r="C25" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B26" s="17"/>
+      <c r="C26" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>259</v>
+      </c>
+      <c r="C27" s="18">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:XFD2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B10:G17"/>
+  </mergeCells>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="A1" location="目录!A35" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.75" customWidth="1"/>
+    <col min="7" max="7" width="55.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="22" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="25" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>261</v>
+      </c>
+      <c r="C6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>281</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C11" s="17"/>
+    </row>
+    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+    </row>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+    </row>
+    <row r="20" spans="1:7" ht="196.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+    </row>
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>266</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C23" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C24" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B25" s="17"/>
+      <c r="C25" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B26" s="17"/>
+      <c r="C26" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B27" s="17"/>
+      <c r="C27" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B28" s="17"/>
+      <c r="C28" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B29" s="17"/>
+      <c r="C29" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B30" s="17"/>
+      <c r="C30" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B31" s="17"/>
+      <c r="C31" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B32" s="17"/>
+      <c r="C32" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
+        <v>259</v>
+      </c>
+      <c r="C33" s="18">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:XFD2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B13:G20"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>
@@ -4631,8 +5473,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:7" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4640,70 +5482,70 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
@@ -4770,12 +5612,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:7" s="22" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="25" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4783,20 +5625,20 @@
       <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="8"/>
@@ -4809,18 +5651,18 @@
       <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="17" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="17" t="s">
         <v>246</v>
       </c>
     </row>
@@ -4828,7 +5670,7 @@
       <c r="B7" t="s">
         <v>198</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="17" t="s">
         <v>88</v>
       </c>
     </row>
@@ -4836,7 +5678,7 @@
       <c r="B8" t="s">
         <v>235</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="17" t="s">
         <v>247</v>
       </c>
     </row>
@@ -4844,7 +5686,7 @@
       <c r="B9" t="s">
         <v>236</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="17" t="s">
         <v>248</v>
       </c>
     </row>
@@ -4852,7 +5694,7 @@
       <c r="B10" t="s">
         <v>237</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="17" t="s">
         <v>249</v>
       </c>
     </row>
@@ -4860,15 +5702,15 @@
       <c r="B11" t="s">
         <v>238</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="17" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="17" t="s">
         <v>251</v>
       </c>
     </row>
@@ -4876,7 +5718,7 @@
       <c r="B13" t="s">
         <v>240</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="17" t="s">
         <v>252</v>
       </c>
     </row>
@@ -4884,7 +5726,7 @@
       <c r="B14" t="s">
         <v>241</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="17" t="s">
         <v>253</v>
       </c>
     </row>
@@ -4892,7 +5734,7 @@
       <c r="B15" t="s">
         <v>242</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="17" t="s">
         <v>254</v>
       </c>
     </row>
@@ -4900,7 +5742,7 @@
       <c r="B16" t="s">
         <v>243</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="17" t="s">
         <v>255</v>
       </c>
     </row>
@@ -4909,72 +5751,72 @@
       <c r="A18" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="20"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="15"/>
     </row>
     <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="20"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
     </row>
     <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
     </row>
     <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
     </row>
     <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
     </row>
     <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
     </row>
     <row r="25" spans="1:8" ht="101.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
     </row>
     <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5036,12 +5878,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:8" s="22" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="25" t="s">
         <v>64</v>
       </c>
     </row>
@@ -5049,20 +5891,20 @@
       <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="8"/>
@@ -5075,7 +5917,7 @@
       <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="17" t="s">
         <v>62</v>
       </c>
     </row>
@@ -5085,79 +5927,79 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="20"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="15"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="20"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
     </row>
     <row r="15" spans="1:8" ht="101.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="17" t="s">
         <v>57</v>
       </c>
       <c r="C17" t="s">
@@ -5184,7 +6026,7 @@
       <c r="B20" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="17" t="s">
         <v>61</v>
       </c>
     </row>
@@ -5200,7 +6042,7 @@
       <c r="B22" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="17" t="s">
         <v>60</v>
       </c>
     </row>
@@ -5237,12 +6079,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:8" s="22" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="25" t="s">
         <v>65</v>
       </c>
     </row>
@@ -5250,20 +6092,20 @@
       <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="8"/>
@@ -5286,72 +6128,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="20"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="15"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="20"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
     </row>
     <row r="15" spans="1:8" ht="101.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5461,12 +6303,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:7" s="22" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="25" t="s">
         <v>66</v>
       </c>
     </row>
@@ -5474,20 +6316,20 @@
       <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="8"/>
@@ -5500,186 +6342,186 @@
       <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="17" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="17" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="17" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="17" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="17" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="17" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="17" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="17" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="17" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="17" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="17" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="17" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="17" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="17" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="17" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="17" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="17" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="17" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="17" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="17" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="17" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="17" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="17" t="s">
         <v>151</v>
       </c>
     </row>
@@ -5689,72 +6531,72 @@
       <c r="A30" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="20"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="15"/>
     </row>
     <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="20"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="15"/>
     </row>
     <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
     </row>
     <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
     </row>
     <row r="34" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
     </row>
     <row r="35" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
     </row>
     <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
     </row>
     <row r="37" spans="1:7" ht="101.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
     </row>
     <row r="38" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="39" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5769,18 +6611,18 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="C40" s="17" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="C41" s="23" t="s">
+      <c r="C41" s="17" t="s">
         <v>90</v>
       </c>
     </row>
@@ -5815,12 +6657,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:8" s="22" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="25" t="s">
         <v>72</v>
       </c>
     </row>
@@ -5828,20 +6670,20 @@
       <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="8"/>
@@ -5854,7 +6696,7 @@
       <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="17" t="s">
         <v>71</v>
       </c>
     </row>
@@ -5864,79 +6706,79 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="20"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="15"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="20"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
     </row>
     <row r="13" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
     </row>
     <row r="14" spans="1:8" ht="1.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
     </row>
     <row r="15" spans="1:8" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="17" t="s">
         <v>74</v>
       </c>
     </row>
@@ -5975,12 +6817,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:8" s="22" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="25" t="s">
         <v>96</v>
       </c>
     </row>
@@ -5988,20 +6830,20 @@
       <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="8"/>
@@ -6014,58 +6856,58 @@
       <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="17" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="17" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="17" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="17" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="17" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="17" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="17" t="s">
         <v>167</v>
       </c>
     </row>
@@ -6074,72 +6916,72 @@
       <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="20"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="20"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
     </row>
     <row r="20" spans="1:7" ht="101.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
     </row>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6154,10 +6996,10 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="17" t="s">
         <v>86</v>
       </c>
     </row>
@@ -6193,12 +7035,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:8" s="22" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="25" t="s">
         <v>75</v>
       </c>
     </row>
@@ -6206,20 +7048,20 @@
       <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="8"/>
@@ -6232,132 +7074,132 @@
       <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="17" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="17" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="17" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="17" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="17" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="17" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="17" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="20"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="20"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
     </row>
     <row r="20" spans="1:7" ht="101.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
     </row>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6367,15 +7209,15 @@
       <c r="B22" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="17" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="17" t="s">
         <v>81</v>
       </c>
     </row>
@@ -6383,7 +7225,7 @@
       <c r="B24" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="17" t="s">
         <v>80</v>
       </c>
     </row>

--- a/2019-06-16.xlsx
+++ b/2019-06-16.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\ttyc\tcyy.bate0530\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tcyy\tcyy.bate\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050" firstSheet="15" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="28" r:id="rId1"/>
@@ -31,13 +31,16 @@
     <sheet name="删除职位" sheetId="46" r:id="rId17"/>
     <sheet name="公司-查询简历列表" sheetId="47" r:id="rId18"/>
     <sheet name="会员-查询职位列表" sheetId="48" r:id="rId19"/>
+    <sheet name="公司-查询投递职位简历列表" sheetId="49" r:id="rId20"/>
+    <sheet name="基础数据-区域获取" sheetId="50" r:id="rId21"/>
+    <sheet name="基础数据-查询字典列表" sheetId="51" r:id="rId22"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="339">
   <si>
     <t>目录</t>
   </si>
@@ -164,14 +167,6 @@
   </si>
   <si>
     <t>四</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人公司职位维护</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、职位删除</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -470,7 +465,7 @@
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>简历-教育经历保存/更新维护</t>
@@ -598,7 +593,7 @@
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -799,39 +794,39 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> id </t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> personname</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> birthday </t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>出生年月日</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> expectregion </t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>期望工作区域</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -848,23 +843,23 @@
       </rPr>
       <t>t</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> expList</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> eduList</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> address</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>地址</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -881,115 +876,115 @@
       </rPr>
       <t>l</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> education</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> telephone</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>电话</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>学历</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>邮箱地址</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> jobstatus </t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>在职状态</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> marriage</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>婚姻状况</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> wages </t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>期望月薪</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> positiontype</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>职位类型</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> selfevaluation </t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>自我评价</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> jointime</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>参加工作时间</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> arrivaltime </t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>到岗时间</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> intentposition </t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>期望职位</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> worknature</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>工作性质</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> sex </t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>性别</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> ethnic </t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>民族</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1006,23 +1001,23 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>工作年限</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>教育经历列表</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>工作经历列表</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>证书列表</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1120,58 +1115,58 @@
   </si>
   <si>
     <t xml:space="preserve">id   </t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> id</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">companyname    </t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>positions</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>所在职位</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">entrancedate    </t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>入职日期</t>
   </si>
   <si>
     <t>dimissiondate</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>离职日期</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>workcontent</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>工作内容</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">rid    </t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">简历编号 </t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>公司名称</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>获取个人简历-工作经历详情</t>
@@ -1231,34 +1226,34 @@
   </si>
   <si>
     <t>graduatedate</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>毕业日期</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>入学日期</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">schoolname   </t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>学校名称</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>education</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>profession</t>
   </si>
   <si>
     <t>专业名称</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>获取个人简历-资格证书详情</t>
@@ -1298,23 +1293,23 @@
   </si>
   <si>
     <t>证书名称</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>qualifyurl</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">qualify_time  </t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>取得证书日期</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>证书url</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1425,84 +1420,84 @@
       </rPr>
       <t>d - 更新时有</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">positiontype 
 </t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>professional</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">region </t>
   </si>
   <si>
     <t xml:space="preserve">region </t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>descriptions</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">nums </t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>nature</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>address</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">experience  
 </t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>cid</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>公司编号</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>要求工作经验</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>公司工作地址</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>职位属性</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>要求学历</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>数量</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>描述</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>区域</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>职位名称</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>http://m.tianchiyueya.com:1888/tcyy/personalposition/saveCompanyPositionByVIP</t>
@@ -1514,11 +1509,11 @@
   </si>
   <si>
     <t xml:space="preserve">experience  </t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>positiontype</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1535,7 +1530,7 @@
       </rPr>
       <t xml:space="preserve">d </t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1552,7 +1547,7 @@
       </rPr>
       <t>d</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1666,31 +1661,31 @@
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>rid</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>qualifyname</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>qualify_time</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>获取证书日期</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>更新时需要</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>更新时有</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
@@ -1825,11 +1820,11 @@
   </si>
   <si>
     <t>region</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>区域</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1875,31 +1870,31 @@
   </si>
   <si>
     <t>personname</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">birthday </t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">expectregion </t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">intentposition </t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>telephone</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>education</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">jobstatus </t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>查询获取简历列表</t>
@@ -1911,23 +1906,23 @@
   </si>
   <si>
     <t>职位</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>职位发布结束时间</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>职位发布开始时间</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>begintime</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>endtime</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>查询获取职位列表</t>
@@ -1935,23 +1930,23 @@
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>公司名称</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>email</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>邮箱地址</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>工作地址</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1994,47 +1989,47 @@
   </si>
   <si>
     <t>region</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>职位类型</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">professional </t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>职位名称</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">wages </t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>薪资范畴</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>status</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>experience</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>学历</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>工作经验</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>状态</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2054,12 +2049,304 @@
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>五</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础数据</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.职位删除</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.字典列表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询字典列表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询获取区域列表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页查询投递职位简历列表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>personname</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrivaltime</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>telephone</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>delivertime</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>professional</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司招聘发布的职位</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>投递时间</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人姓名</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+    "header": {
+        "status": 2001,
+        "msg": "查询成功",
+        "t": "2019-06-19 21:52:28"
+    },
+    "body": [ 
+             "data": [
+            {
+               'rid':'简历编号',
+               'jid':'职位编号',
+               'professional':'职位名称',
+               'personname':'',
+               'arrivaltime':'',
+               'telephone':'',
+               'address':'',
+                'delivertime':''
+            }
+        ],
+        "page": 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+    ]
+}</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>职位id</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>简历id</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://m.tianchiyueya.com:1888/tcyy/area/getAreaList</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域名称</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+    "header": {
+        "status": 2001,
+        "msg": "查询成功",
+        "t": "2019-06-19 21:52:28"
+    },
+    "body": [ 
+            {
+              "id":"1", 
+              "name":"北京"
+            }
+        ]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+    ]
+}</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>父编号</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>http://m.tianchiyueya.com:1888/tcyy/</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>basedict/lists</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+    "header": {
+        "status": 2001,
+        "msg": "查询成功",
+        "t": "2019-06-19 21:52:28"
+    },
+    "body": [  
+            {
+             'dict_code':'education',
+             'dict_name':'大专',
+             'dict_value':'1',
+             'remark':'学历'
+            }, {
+             'dict_code':'education',
+             'dict_name':'本科',
+             'dict_value':'2',
+             'remark':'学历'
+            },{
+             'dict_code':'education',
+             'dict_name':'硕士',
+             'dict_value':'3',
+             'remark':'学历'
+            }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+    ]
+}</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict_code</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典值</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict_value</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict_name</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典名称</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典code</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.查询区域</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.查询投递职位简历列表</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人公司职位维护</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pid</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2119,15 +2406,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -2204,7 +2482,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2235,9 +2513,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2247,13 +2522,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2270,6 +2545,15 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2292,7 +2576,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2601,10 +2885,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="30.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2633,132 +2917,158 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="7" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="18" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="18" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="18" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="18" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="18" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="18" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="18" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="18" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="10"/>
+      <c r="B23" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="19" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="19" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="19" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="19" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="19" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="19" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="19" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="19" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="19" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="19" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="19" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="11"/>
-      <c r="B22" s="19" t="s">
-        <v>98</v>
+    <row r="25" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="23" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="23" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" location="返回格式说明!A1" display="返回格式说明"/>
-    <hyperlink ref="B9" location="'个人简历新增-更新维护'!A1" display="1.个人简历增加/修改"/>
-    <hyperlink ref="B10" location="'简历-工作经历维护'!A1" display="2.工作经历增加/修改"/>
-    <hyperlink ref="B11" location="'简历-教育经历维护'!A1" display="3.教育经历增加/修改"/>
-    <hyperlink ref="B12" location="'简历-资格证书维护'!A1" display="4.职业证书增加/修改"/>
-    <hyperlink ref="B16" location="个人简历详情!A1" display="8.简历详情"/>
-    <hyperlink ref="B15" location="教育经历详情!A1" display="7.教育经历详情"/>
-    <hyperlink ref="B14" location="资格证书详情!A1" display="6.职业证书详情"/>
-    <hyperlink ref="B13" location="工作经历详情!A1" display="5.工作经历详情"/>
-    <hyperlink ref="B17" location="个人简历删除!A1" display="9.个人简历删除"/>
+    <hyperlink ref="B10" location="'个人简历新增-更新维护'!A1" display="1.个人简历增加/修改"/>
+    <hyperlink ref="B11" location="'简历-工作经历维护'!A1" display="2.工作经历增加/修改"/>
+    <hyperlink ref="B12" location="'简历-教育经历维护'!A1" display="3.教育经历增加/修改"/>
+    <hyperlink ref="B13" location="'简历-资格证书维护'!A1" display="4.职业证书增加/修改"/>
+    <hyperlink ref="B17" location="个人简历详情!A1" display="8.简历详情"/>
+    <hyperlink ref="B16" location="教育经历详情!A1" display="7.教育经历详情"/>
+    <hyperlink ref="B15" location="资格证书详情!A1" display="6.职业证书详情"/>
+    <hyperlink ref="B14" location="工作经历详情!A1" display="5.工作经历详情"/>
+    <hyperlink ref="B18" location="个人简历删除!A1" display="9.个人简历删除"/>
     <hyperlink ref="B4" location="'个人公司新增-更新维护'!A1" display="1、公司增加/更新维护"/>
     <hyperlink ref="B5" location="公司查询收藏简历记录!A1" display="2、公司查询收藏简历记录"/>
     <hyperlink ref="B6" location="会员企业查询浏览简历历史!A1" display="3.会员企业查询浏览简历历史"/>
-    <hyperlink ref="B20" location="'职位新增-更新维护'!A1" display="1.职位添加/修改"/>
-    <hyperlink ref="B21" location="删除职位!A1" display="2、职位删除"/>
-    <hyperlink ref="B22" location="职位详情!A1" display="3.职位详情"/>
+    <hyperlink ref="B21" location="'职位新增-更新维护'!A1" display="1.职位添加/修改"/>
+    <hyperlink ref="B22" location="删除职位!A1" display="2、职位删除"/>
+    <hyperlink ref="B23" location="职位详情!A1" display="3.职位详情"/>
     <hyperlink ref="B7" location="'公司-查询简历列表'!A1" display="4.查询简历列表"/>
-    <hyperlink ref="B18" location="'会员-查询职位列表'!A1" display="10、查询职位列表"/>
+    <hyperlink ref="B19" location="'会员-查询职位列表'!A1" display="10、查询职位列表"/>
+    <hyperlink ref="B8" location="'公司-查询投递职位简历列表'!A1" display="5.查询投递职位简历列表"/>
+    <hyperlink ref="B25" location="'基础数据-区域获取'!A1" display="1.查询区域"/>
+    <hyperlink ref="B26" location="'基础数据-查询字典列表'!A1" display="2.字典列表"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2782,34 +3092,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="22" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="25" t="s">
-        <v>97</v>
+    <row r="2" spans="1:8" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="27" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
+        <v>15</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -2819,42 +3129,42 @@
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>195</v>
+        <v>18</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="21" t="s">
+      <c r="C9" s="16" t="s">
         <v>229</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="21" t="s">
-        <v>230</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2863,91 +3173,91 @@
       <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="15"/>
+      <c r="B12" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="15"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
     </row>
     <row r="19" spans="1:7" ht="101.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
         <v>21</v>
       </c>
-      <c r="B21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>93</v>
+      <c r="B22" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2956,7 +3266,7 @@
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B12:G19"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="A1" location="目录!A35" display="返回"/>
@@ -2981,34 +3291,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="22" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="25" t="s">
-        <v>104</v>
+    <row r="2" spans="1:8" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="27" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
+        <v>15</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -3018,10 +3328,10 @@
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>71</v>
+        <v>18</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3030,262 +3340,262 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="15"/>
+      <c r="B8" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="15"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
     </row>
     <row r="15" spans="1:8" ht="274.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C18" s="16" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="17" t="s">
+      <c r="D18" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B19" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C19" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B19" s="17" t="s">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B20" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C20" s="16" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B20" s="17" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B21" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B22" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B23" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B24" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B25" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B26" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B27" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B28" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B29" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B30" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B31" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B32" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B33" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B34" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B35" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B36" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B37" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B38" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B39" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="C20" s="17" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B21" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B22" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B23" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B24" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B25" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B26" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B27" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B28" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B29" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B30" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B31" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B32" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B33" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B34" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B35" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B36" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B37" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="C37" s="17" t="s">
+      <c r="C39" s="16" t="s">
         <v>149</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B38" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B39" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -3294,7 +3604,7 @@
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B8:G15"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="A1" location="目录!A35" display="返回"/>
@@ -3319,34 +3629,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="22" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="25" t="s">
-        <v>169</v>
+    <row r="2" spans="1:8" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="27" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
+        <v>15</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -3356,10 +3666,10 @@
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>71</v>
+        <v>18</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3368,199 +3678,199 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="15"/>
+      <c r="B8" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="15"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
     </row>
     <row r="15" spans="1:8" ht="83.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C18" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B19" s="16" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="17" t="s">
+      <c r="C19" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="C18" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B19" s="17" t="s">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B20" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C20" s="16" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B20" s="17" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B21" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C21" s="16" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B21" s="17" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B22" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C22" s="16" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B22" s="17" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B23" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C23" s="16" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B23" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>167</v>
-      </c>
-    </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3568,7 +3878,7 @@
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B8:G15"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="A1" location="目录!A35" display="返回"/>
@@ -3593,34 +3903,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="22" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="25" t="s">
-        <v>170</v>
+    <row r="2" spans="1:8" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="27" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
+        <v>15</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -3630,10 +3940,10 @@
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>71</v>
+        <v>18</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3642,199 +3952,199 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="15"/>
+      <c r="B8" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="15"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
     </row>
     <row r="15" spans="1:8" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>156</v>
+        <v>19</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B19" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C19" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B20" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B21" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B22" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B19" s="17" t="s">
+      <c r="C22" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="C19" s="17" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B20" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B21" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B22" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>180</v>
-      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B23" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>167</v>
+      <c r="B23" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3842,7 +4152,7 @@
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B8:G15"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="A1" location="目录!A35" display="返回"/>
@@ -3867,34 +4177,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="22" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="25" t="s">
-        <v>181</v>
+    <row r="2" spans="1:8" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="27" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
+        <v>15</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -3904,10 +4214,10 @@
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>71</v>
+        <v>18</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3916,183 +4226,183 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="15"/>
+      <c r="B8" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="15"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
     </row>
     <row r="15" spans="1:8" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>156</v>
+        <v>19</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" s="17" t="s">
+      <c r="B18" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B19" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B20" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B19" s="17" t="s">
+      <c r="C20" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="C19" s="17" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B20" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>187</v>
-      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B21" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>167</v>
+      <c r="B21" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4100,7 +4410,7 @@
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B8:G15"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="A1" location="目录!A35" display="返回"/>
@@ -4126,34 +4436,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="22" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="25" t="s">
-        <v>194</v>
+    <row r="2" spans="1:7" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="27" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
+        <v>15</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -4163,90 +4473,90 @@
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="20" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="21" t="s">
+      <c r="C7" s="16" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="21" t="s">
+      <c r="C8" s="16" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="21" t="s">
+      <c r="C10" s="16" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="21" t="s">
+      <c r="C12" s="16" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="21" t="s">
+      <c r="C13" s="16" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="C12" s="17" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="21" t="s">
+      <c r="C14" s="16" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="21" t="s">
+      <c r="C15" s="16" t="s">
         <v>204</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4254,99 +4564,99 @@
       <c r="A17" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="29" t="s">
-        <v>222</v>
-      </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="15"/>
+      <c r="B17" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="14"/>
     </row>
     <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="15"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="14"/>
     </row>
     <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
     </row>
     <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
     </row>
     <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
     </row>
     <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
     </row>
     <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
     </row>
     <row r="24" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
     </row>
     <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>220</v>
+        <v>19</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B28" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="C27" s="17" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B28" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>213</v>
+      <c r="C28" s="16" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -4355,7 +4665,7 @@
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B17:G24"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="A1" location="目录!A35" display="返回"/>
@@ -4380,34 +4690,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="22" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="25" t="s">
-        <v>225</v>
+    <row r="2" spans="1:8" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="27" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
+        <v>15</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -4417,10 +4727,10 @@
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>71</v>
+        <v>18</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4429,215 +4739,215 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="29" t="s">
-        <v>221</v>
-      </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="15"/>
+      <c r="B8" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="15"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
     </row>
     <row r="15" spans="1:8" ht="150.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>220</v>
+        <v>19</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>105</v>
+      <c r="B18" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B20" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="C19" s="17" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B20" s="21" t="s">
+      <c r="C20" s="16" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B21" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B22" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="C20" s="17" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B21" s="21" t="s">
+      <c r="C22" s="16" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B23" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B24" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="C21" s="17" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B22" s="21" t="s">
+      <c r="C24" s="16" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B25" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="C22" s="17" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B23" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B24" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B25" s="21" t="s">
+      <c r="C25" s="16" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B26" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B27" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="C25" s="17" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B26" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B27" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>206</v>
+      <c r="C27" s="16" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4645,7 +4955,7 @@
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B8:G15"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="A1" location="目录!A35" display="返回"/>
@@ -4670,34 +4980,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="22" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="25" t="s">
-        <v>224</v>
+    <row r="2" spans="1:8" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="27" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
+        <v>15</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -4707,10 +5017,10 @@
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>71</v>
+        <v>18</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4719,173 +5029,173 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="29" t="s">
-        <v>226</v>
-      </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="15"/>
+      <c r="B8" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="15"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
     </row>
     <row r="15" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="C17" s="17"/>
+        <v>19</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="C17" s="16"/>
     </row>
     <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17" t="s">
-        <v>105</v>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4893,7 +5203,7 @@
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B8:G15"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="A1" location="目录!A35" display="返回"/>
@@ -4906,9 +5216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
-    </sheetView>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4920,66 +5228,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="22" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="25" t="s">
-        <v>275</v>
+    <row r="2" spans="1:8" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="27" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
+        <v>15</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
+        <v>16</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>263</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>264</v>
+        <v>261</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4988,154 +5296,154 @@
       <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="15"/>
+      <c r="B10" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="15"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
     </row>
     <row r="17" spans="1:7" ht="196.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
+        <v>264</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C20" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="C19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="D20" s="16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C21" s="16" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C20" s="17" t="s">
+      <c r="D21" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B22" s="16"/>
+      <c r="C22" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C21" s="17" t="s">
+      <c r="D22" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B23" s="16"/>
+      <c r="C23" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B24" s="16"/>
+      <c r="C24" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B25" s="16"/>
+      <c r="C25" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B26" s="16"/>
+      <c r="C26" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B22" s="17"/>
-      <c r="C22" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B23" s="17"/>
-      <c r="C23" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B24" s="17"/>
-      <c r="C24" s="17" t="s">
-        <v>273</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B25" s="17"/>
-      <c r="C25" s="17" t="s">
-        <v>274</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B26" s="17"/>
-      <c r="C26" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>140</v>
+      <c r="D26" s="16" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>259</v>
-      </c>
-      <c r="C27" s="18">
+        <v>257</v>
+      </c>
+      <c r="C27" s="17">
         <v>1</v>
       </c>
     </row>
@@ -5145,7 +5453,7 @@
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B10:G17"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="A1" location="目录!A35" display="返回"/>
@@ -5172,275 +5480,275 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="22" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="25" t="s">
-        <v>282</v>
+    <row r="2" spans="1:8" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="27" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>276</v>
-      </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
+        <v>15</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>274</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
+        <v>16</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>263</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>264</v>
+        <v>261</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>197</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>277</v>
+        <v>195</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>280</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>279</v>
+        <v>278</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>281</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>278</v>
+        <v>279</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C11" s="17"/>
+      <c r="C11" s="16"/>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="29" t="s">
-        <v>288</v>
-      </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="15"/>
+      <c r="B13" s="31" t="s">
+        <v>286</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="15"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
     </row>
     <row r="20" spans="1:7" ht="196.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
     </row>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C24" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D24" s="16" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C24" s="17" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B25" s="16"/>
+      <c r="C25" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="D25" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="D24" s="17" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B25" s="17"/>
-      <c r="C25" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="D25" s="17" t="s">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B26" s="16"/>
+      <c r="C26" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B27" s="16"/>
+      <c r="C27" s="16" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B26" s="17"/>
-      <c r="C26" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="D26" s="17" t="s">
+      <c r="D27" s="16" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B28" s="16"/>
+      <c r="C28" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="D28" s="16" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B27" s="17"/>
-      <c r="C27" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B28" s="17"/>
-      <c r="C28" s="17" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B29" s="16"/>
+      <c r="C29" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D29" s="16" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B29" s="17"/>
-      <c r="C29" s="17" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B30" s="16"/>
+      <c r="C30" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D30" s="16" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B31" s="16"/>
+      <c r="C31" s="16" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B30" s="17"/>
-      <c r="C30" s="17" t="s">
+      <c r="D31" s="16" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B32" s="16"/>
+      <c r="C32" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D32" s="16" t="s">
         <v>295</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B31" s="17"/>
-      <c r="C31" s="17" t="s">
-        <v>296</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B32" s="17"/>
-      <c r="C32" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
-        <v>259</v>
-      </c>
-      <c r="C33" s="18">
+        <v>257</v>
+      </c>
+      <c r="C33" s="17">
         <v>1</v>
       </c>
     </row>
@@ -5450,7 +5758,7 @@
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B13:G20"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="A1" location="目录!A35" display="返回"/>
@@ -5473,8 +5781,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:7" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5482,70 +5790,70 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
@@ -5590,6 +5898,613 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A1" location="目录!A1" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.75" customWidth="1"/>
+    <col min="7" max="7" width="55.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="27" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C7" s="16"/>
+    </row>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>316</v>
+      </c>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="14"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="14"/>
+    </row>
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+    </row>
+    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+    </row>
+    <row r="17" spans="1:7" ht="196.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>264</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C20" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C21" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B22" s="16"/>
+      <c r="C22" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B23" s="16"/>
+      <c r="C23" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B24" s="16"/>
+      <c r="C24" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B25" s="16"/>
+      <c r="C25" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B26" s="16"/>
+      <c r="C26" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>257</v>
+      </c>
+      <c r="C27" s="22">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:XFD2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B10:G17"/>
+  </mergeCells>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="A1" location="目录!A35" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.75" customWidth="1"/>
+    <col min="7" max="7" width="55.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="27" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="14"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+    </row>
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+    </row>
+    <row r="15" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B18" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>322</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:XFD2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B8:G15"/>
+  </mergeCells>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="A1" location="目录!A35" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.75" customWidth="1"/>
+    <col min="7" max="7" width="55.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="27" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>326</v>
+      </c>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="14"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+    </row>
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+    </row>
+    <row r="15" spans="1:8" ht="196.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B18" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B19" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B20" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B21" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:XFD2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B8:G15"/>
+  </mergeCells>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="A1" location="目录!A35" display="返回"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5612,34 +6527,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="22" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="25" t="s">
-        <v>63</v>
+    <row r="2" spans="1:7" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="27" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
+        <v>15</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -5649,101 +6564,101 @@
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>244</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>88</v>
+        <v>196</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>235</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>247</v>
+        <v>233</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>248</v>
+        <v>234</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>237</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>249</v>
+        <v>235</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>238</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>250</v>
+        <v>236</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>251</v>
+      <c r="B12" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>240</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>252</v>
+        <v>238</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>241</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>253</v>
+        <v>239</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>242</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>254</v>
+        <v>240</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>243</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>255</v>
+        <v>241</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5751,99 +6666,99 @@
       <c r="A18" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="15"/>
+      <c r="B18" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="14"/>
     </row>
     <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="15"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="14"/>
     </row>
     <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
     </row>
     <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
     </row>
     <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
     </row>
     <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
     </row>
     <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
     </row>
     <row r="25" spans="1:8" ht="101.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
     </row>
     <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" t="s">
         <v>21</v>
-      </c>
-      <c r="B27" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -5878,34 +6793,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="22" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="25" t="s">
-        <v>64</v>
+    <row r="2" spans="1:8" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="27" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
+        <v>15</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -5915,10 +6830,10 @@
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>62</v>
+        <v>18</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5927,123 +6842,123 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="15"/>
+      <c r="B8" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="15"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
     </row>
     <row r="15" spans="1:8" ht="101.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s">
         <v>21</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>61</v>
+        <v>56</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -6079,34 +6994,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="22" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="25" t="s">
-        <v>65</v>
+    <row r="2" spans="1:8" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="27" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
+        <v>15</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -6116,10 +7031,10 @@
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6128,147 +7043,147 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="15"/>
+      <c r="B8" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="15"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
     </row>
     <row r="15" spans="1:8" ht="101.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -6303,34 +7218,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="22" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="25" t="s">
-        <v>66</v>
+    <row r="2" spans="1:7" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="27" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
+        <v>15</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -6340,189 +7255,189 @@
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>233</v>
+        <v>18</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="17" t="s">
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="17" t="s">
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="C25" s="17" t="s">
+      <c r="C27" s="16" t="s">
         <v>149</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6531,99 +7446,99 @@
       <c r="A30" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="15"/>
+      <c r="B30" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="14"/>
     </row>
     <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="15"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="14"/>
     </row>
     <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
     </row>
     <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
     </row>
     <row r="34" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
     </row>
     <row r="35" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
     </row>
     <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
     </row>
     <row r="37" spans="1:7" ht="101.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
     </row>
     <row r="38" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="39" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" t="s">
         <v>21</v>
       </c>
-      <c r="B39" t="s">
-        <v>22</v>
-      </c>
-      <c r="C39" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="40" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>69</v>
+      <c r="B40" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>90</v>
+      <c r="B41" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -6632,7 +7547,7 @@
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B30:G37"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="A1" location="目录!A35" display="返回"/>
@@ -6657,34 +7572,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="22" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="25" t="s">
-        <v>72</v>
+    <row r="2" spans="1:8" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="27" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
+        <v>15</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -6694,10 +7609,10 @@
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>71</v>
+        <v>18</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6706,80 +7621,80 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="15"/>
+      <c r="B8" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="15"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
     </row>
     <row r="13" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:8" ht="1.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
     </row>
     <row r="15" spans="1:8" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>74</v>
+        <v>19</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6790,7 +7705,7 @@
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B8:G15"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="A1" location="目录!A35" display="返回"/>
@@ -6817,34 +7732,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="22" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="25" t="s">
-        <v>96</v>
+    <row r="2" spans="1:8" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="27" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
+        <v>15</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -6854,61 +7769,61 @@
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>232</v>
+        <v>18</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="17" t="s">
+    </row>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="17" t="s">
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="17" t="s">
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C10" s="16" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="17" t="s">
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C11" s="16" t="s">
         <v>165</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6916,91 +7831,91 @@
       <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="15"/>
+      <c r="B13" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="15"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
     </row>
     <row r="20" spans="1:7" ht="101.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
     </row>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>86</v>
+      <c r="B23" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -7009,7 +7924,7 @@
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B13:G20"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="A1" location="目录!A35" display="返回"/>
@@ -7035,34 +7950,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="22" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="25" t="s">
-        <v>75</v>
+    <row r="2" spans="1:8" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="27" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
+        <v>15</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -7072,161 +7987,161 @@
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>195</v>
+        <v>18</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C7" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="16" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="17" t="s">
+      <c r="C10" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>180</v>
-      </c>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>167</v>
+      <c r="B11" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="15"/>
+      <c r="B13" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="15"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
     </row>
     <row r="20" spans="1:7" ht="101.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
     </row>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>82</v>
+        <v>20</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>81</v>
+      <c r="B23" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>80</v>
+        <v>77</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -7235,7 +8150,7 @@
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B13:G20"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="A1" location="目录!A35" display="返回"/>

--- a/2019-06-16.xlsx
+++ b/2019-06-16.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050" firstSheet="15" activeTab="20"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050" firstSheet="19" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="28" r:id="rId1"/>
@@ -34,13 +34,15 @@
     <sheet name="公司-查询投递职位简历列表" sheetId="49" r:id="rId20"/>
     <sheet name="基础数据-区域获取" sheetId="50" r:id="rId21"/>
     <sheet name="基础数据-查询字典列表" sheetId="51" r:id="rId22"/>
+    <sheet name="检查用户是否维护公司" sheetId="53" r:id="rId23"/>
+    <sheet name="检查用户是否简历" sheetId="54" r:id="rId24"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="343">
   <si>
     <t>目录</t>
   </si>
@@ -2280,38 +2282,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>dict_code</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>remark</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典值</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>dict_value</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>dict_name</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典名称</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典code</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>1.查询区域</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2340,6 +2310,94 @@
   <si>
     <t>pid</t>
     <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>六</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户检查</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.检查是否维护公司信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.检查是否维护简历信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询检查用户是否维护公司</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>有数据</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>无数据</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">http://m.tianchiyueya.com:1888/tcyy/personalresume/deliverResumerCheckBefore </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://m.tianchiyueya.com:1888/tcyy/personalcompany/checkCompanyExists</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+    "header": {
+        "status": 2001,
+        "msg": "有公司信息",
+        "t": "2019-06-19 21:52:28"
+    },
+    "body": [ 
+            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+    ]
+}</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+    "header": {
+        "status": 2001,
+        "msg": "有简历信息,可投递",
+        "t": "2019-06-19 21:52:28"
+    },
+    "body": [ 
+            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+    ]
+}</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2482,7 +2540,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2553,6 +2611,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2885,10 +2946,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="30.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2942,7 +3003,7 @@
     </row>
     <row r="8" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="7" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -3008,7 +3069,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -3037,12 +3098,30 @@
     </row>
     <row r="25" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="23" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="23" t="s">
         <v>302</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="1" t="s">
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -3096,8 +3175,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:8" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3105,14 +3184,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -3173,72 +3252,72 @@
       <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
       <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
     </row>
     <row r="19" spans="1:7" ht="101.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3295,8 +3374,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:8" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3304,14 +3383,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -3340,72 +3419,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
     </row>
     <row r="15" spans="1:8" ht="274.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3633,8 +3712,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:8" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
         <v>167</v>
       </c>
     </row>
@@ -3642,14 +3721,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -3678,72 +3757,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
     </row>
     <row r="15" spans="1:8" ht="83.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3907,8 +3986,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:8" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
         <v>168</v>
       </c>
     </row>
@@ -3916,14 +3995,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -3952,72 +4031,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
     </row>
     <row r="15" spans="1:8" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4181,8 +4260,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:8" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
         <v>179</v>
       </c>
     </row>
@@ -4190,14 +4269,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -4226,72 +4305,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
     </row>
     <row r="15" spans="1:8" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4440,8 +4519,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:7" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
         <v>192</v>
       </c>
     </row>
@@ -4449,14 +4528,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -4564,72 +4643,72 @@
       <c r="A17" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="32" t="s">
         <v>220</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
       <c r="H17" s="14"/>
     </row>
     <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
       <c r="H18" s="14"/>
     </row>
     <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
     </row>
     <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
     </row>
     <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
     </row>
     <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
     </row>
     <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
     </row>
     <row r="24" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
     </row>
     <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4694,8 +4773,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:8" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
         <v>223</v>
       </c>
     </row>
@@ -4703,14 +4782,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -4739,72 +4818,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
     </row>
     <row r="15" spans="1:8" ht="150.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4984,8 +5063,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:8" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
         <v>222</v>
       </c>
     </row>
@@ -4993,14 +5072,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -5029,72 +5108,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="32" t="s">
         <v>224</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
     </row>
     <row r="15" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5232,8 +5311,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:8" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
         <v>273</v>
       </c>
     </row>
@@ -5241,14 +5320,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="29" t="s">
         <v>256</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -5296,72 +5375,72 @@
       <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="32" t="s">
         <v>263</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
       <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
       <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
     </row>
     <row r="17" spans="1:7" ht="196.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5484,8 +5563,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:8" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
         <v>280</v>
       </c>
     </row>
@@ -5493,14 +5572,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -5574,72 +5653,72 @@
       <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="32" t="s">
         <v>286</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
       <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
     </row>
     <row r="20" spans="1:7" ht="196.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
     </row>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5781,8 +5860,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:7" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="25" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5790,70 +5869,70 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
@@ -5925,8 +6004,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:8" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
         <v>305</v>
       </c>
     </row>
@@ -5934,14 +6013,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="29" t="s">
         <v>256</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -5984,72 +6063,72 @@
       <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="32" t="s">
         <v>316</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
       <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
       <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
     </row>
     <row r="17" spans="1:7" ht="196.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6154,7 +6233,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8:G15"/>
     </sheetView>
   </sheetViews>
@@ -6172,8 +6251,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:8" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
         <v>304</v>
       </c>
     </row>
@@ -6181,14 +6260,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="29" t="s">
         <v>320</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -6208,7 +6287,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>324</v>
@@ -6220,72 +6299,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="32" t="s">
         <v>323</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
     </row>
     <row r="15" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6326,8 +6405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6344,8 +6423,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:8" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
         <v>303</v>
       </c>
     </row>
@@ -6353,14 +6432,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="29" t="s">
         <v>325</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -6389,108 +6468,92 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="32" t="s">
         <v>326</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
     </row>
     <row r="15" spans="1:8" ht="196.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>334</v>
-      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B18" s="16" t="s">
-        <v>332</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>333</v>
-      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B19" s="16" t="s">
-        <v>331</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>330</v>
-      </c>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B20" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>329</v>
-      </c>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B21" s="16"/>
@@ -6502,6 +6565,520 @@
     <mergeCell ref="B8:G15"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="A1" location="目录!A35" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="7" max="7" width="55.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>341</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="14"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+    </row>
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+    </row>
+    <row r="15" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="C17" s="16">
+        <v>2001</v>
+      </c>
+      <c r="D17" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="C18" s="16">
+        <v>5001</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:XFD2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B8:G15"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="A1" location="目录!A35" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="7" max="7" width="55.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>339</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>342</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="14"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+    </row>
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+    </row>
+    <row r="15" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="C17" s="16">
+        <v>2001</v>
+      </c>
+      <c r="D17" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="C18" s="16">
+        <v>5001</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:XFD2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B8:G15"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="A1" location="目录!A35" display="返回"/>
@@ -6531,8 +7108,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:7" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
         <v>61</v>
       </c>
     </row>
@@ -6540,14 +7117,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -6666,72 +7243,72 @@
       <c r="A18" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
       <c r="H18" s="14"/>
     </row>
     <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
       <c r="H19" s="14"/>
     </row>
     <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
     </row>
     <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
     </row>
     <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
     </row>
     <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
     </row>
     <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
     </row>
     <row r="25" spans="1:8" ht="101.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
     </row>
     <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6797,8 +7374,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:8" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
         <v>62</v>
       </c>
     </row>
@@ -6806,14 +7383,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -6842,72 +7419,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
     </row>
     <row r="15" spans="1:8" ht="101.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6998,8 +7575,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:8" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
         <v>63</v>
       </c>
     </row>
@@ -7007,14 +7584,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -7043,72 +7620,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
     </row>
     <row r="15" spans="1:8" ht="101.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7222,8 +7799,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:7" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
         <v>64</v>
       </c>
     </row>
@@ -7231,14 +7808,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -7446,72 +8023,72 @@
       <c r="A30" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
       <c r="H30" s="14"/>
     </row>
     <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
       <c r="H31" s="14"/>
     </row>
     <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
     </row>
     <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
     </row>
     <row r="34" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
     </row>
     <row r="35" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
     </row>
     <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
     </row>
     <row r="37" spans="1:7" ht="101.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
     </row>
     <row r="38" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="39" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7576,8 +8153,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:8" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
         <v>70</v>
       </c>
     </row>
@@ -7585,14 +8162,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -7621,72 +8198,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
     </row>
     <row r="13" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
     </row>
     <row r="14" spans="1:8" ht="1.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
     </row>
     <row r="15" spans="1:8" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7736,8 +8313,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:8" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
         <v>94</v>
       </c>
     </row>
@@ -7745,14 +8322,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -7831,72 +8408,72 @@
       <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
       <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
     </row>
     <row r="20" spans="1:7" ht="101.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
     </row>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7954,8 +8531,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:8" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
         <v>73</v>
       </c>
     </row>
@@ -7963,14 +8540,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -8049,72 +8626,72 @@
       <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
       <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
     </row>
     <row r="20" spans="1:7" ht="101.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
     </row>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">

--- a/2019-06-16.xlsx
+++ b/2019-06-16.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tcyy\tcyy.bate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\ttyc\tcyy.bate0530\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050" firstSheet="19" activeTab="23"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="28" r:id="rId1"/>
@@ -2540,7 +2540,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2614,6 +2614,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2948,8 +2951,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="30.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3115,12 +3118,12 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="25" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="25" t="s">
         <v>334</v>
       </c>
     </row>
@@ -3148,6 +3151,8 @@
     <hyperlink ref="B8" location="'公司-查询投递职位简历列表'!A1" display="5.查询投递职位简历列表"/>
     <hyperlink ref="B25" location="'基础数据-区域获取'!A1" display="1.查询区域"/>
     <hyperlink ref="B26" location="'基础数据-查询字典列表'!A1" display="2.字典列表"/>
+    <hyperlink ref="B28" location="检查用户是否维护公司!A1" display="1.检查是否维护公司信息"/>
+    <hyperlink ref="B29" location="检查用户是否简历!A1" display="2.检查是否维护简历信息"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3175,8 +3180,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:8" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="29" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3184,14 +3189,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -3252,72 +3257,72 @@
       <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
       <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
     </row>
     <row r="19" spans="1:7" ht="101.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3374,8 +3379,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:8" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="29" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3383,14 +3388,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -3419,72 +3424,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
     </row>
     <row r="15" spans="1:8" ht="274.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3712,8 +3717,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:8" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="29" t="s">
         <v>167</v>
       </c>
     </row>
@@ -3721,14 +3726,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -3757,72 +3762,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
     </row>
     <row r="15" spans="1:8" ht="83.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3986,8 +3991,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:8" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="29" t="s">
         <v>168</v>
       </c>
     </row>
@@ -3995,14 +4000,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -4031,72 +4036,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
     </row>
     <row r="15" spans="1:8" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4260,8 +4265,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:8" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="29" t="s">
         <v>179</v>
       </c>
     </row>
@@ -4269,14 +4274,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -4305,72 +4310,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
     </row>
     <row r="15" spans="1:8" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4519,8 +4524,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:7" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="29" t="s">
         <v>192</v>
       </c>
     </row>
@@ -4528,14 +4533,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="30" t="s">
         <v>213</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -4643,72 +4648,72 @@
       <c r="A17" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="33" t="s">
         <v>220</v>
       </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
       <c r="H17" s="14"/>
     </row>
     <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
       <c r="H18" s="14"/>
     </row>
     <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
     </row>
     <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
     </row>
     <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
     </row>
     <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
     </row>
     <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
     </row>
     <row r="24" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
     </row>
     <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4773,8 +4778,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:8" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="29" t="s">
         <v>223</v>
       </c>
     </row>
@@ -4782,14 +4787,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="30" t="s">
         <v>214</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -4818,72 +4823,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
     </row>
     <row r="15" spans="1:8" ht="150.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5063,8 +5068,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:8" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="29" t="s">
         <v>222</v>
       </c>
     </row>
@@ -5072,14 +5077,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="30" t="s">
         <v>221</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -5108,72 +5113,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
     </row>
     <row r="15" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5311,8 +5316,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:8" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="29" t="s">
         <v>273</v>
       </c>
     </row>
@@ -5320,14 +5325,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="30" t="s">
         <v>256</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -5375,72 +5380,72 @@
       <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="33" t="s">
         <v>263</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
       <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
       <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
     </row>
     <row r="17" spans="1:7" ht="196.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5563,8 +5568,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:8" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="29" t="s">
         <v>280</v>
       </c>
     </row>
@@ -5572,14 +5577,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -5653,72 +5658,72 @@
       <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
       <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
     </row>
     <row r="20" spans="1:7" ht="196.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
     </row>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5860,8 +5865,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:7" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="26" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5869,70 +5874,70 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
@@ -6004,8 +6009,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:8" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="29" t="s">
         <v>305</v>
       </c>
     </row>
@@ -6013,14 +6018,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="30" t="s">
         <v>256</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -6063,72 +6068,72 @@
       <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="33" t="s">
         <v>316</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
       <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
       <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
     </row>
     <row r="17" spans="1:7" ht="196.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6251,8 +6256,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:8" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="29" t="s">
         <v>304</v>
       </c>
     </row>
@@ -6260,14 +6265,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="30" t="s">
         <v>320</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -6299,72 +6304,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="33" t="s">
         <v>323</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
     </row>
     <row r="15" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6423,8 +6428,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:8" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="29" t="s">
         <v>303</v>
       </c>
     </row>
@@ -6432,14 +6437,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="30" t="s">
         <v>325</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -6468,72 +6473,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="33" t="s">
         <v>326</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
     </row>
     <row r="15" spans="1:8" ht="196.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6593,8 +6598,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:8" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="29" t="s">
         <v>335</v>
       </c>
     </row>
@@ -6602,14 +6607,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="30" t="s">
         <v>340</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -6638,72 +6643,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="33" t="s">
         <v>341</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
     </row>
     <row r="15" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6834,7 +6839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
@@ -6850,8 +6855,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:8" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="29" t="s">
         <v>335</v>
       </c>
     </row>
@@ -6859,14 +6864,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="30" t="s">
         <v>339</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -6895,72 +6900,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="33" t="s">
         <v>342</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
     </row>
     <row r="15" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7108,8 +7113,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:7" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="29" t="s">
         <v>61</v>
       </c>
     </row>
@@ -7117,14 +7122,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -7243,72 +7248,72 @@
       <c r="A18" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
       <c r="H18" s="14"/>
     </row>
     <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
       <c r="H19" s="14"/>
     </row>
     <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
     </row>
     <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
     </row>
     <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
     </row>
     <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
     </row>
     <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
     </row>
     <row r="25" spans="1:8" ht="101.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
     </row>
     <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7374,8 +7379,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:8" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="29" t="s">
         <v>62</v>
       </c>
     </row>
@@ -7383,14 +7388,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -7419,72 +7424,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
     </row>
     <row r="15" spans="1:8" ht="101.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7575,8 +7580,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:8" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="29" t="s">
         <v>63</v>
       </c>
     </row>
@@ -7584,14 +7589,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -7620,72 +7625,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
     </row>
     <row r="15" spans="1:8" ht="101.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7799,8 +7804,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:7" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="29" t="s">
         <v>64</v>
       </c>
     </row>
@@ -7808,14 +7813,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -8023,72 +8028,72 @@
       <c r="A30" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
       <c r="H30" s="14"/>
     </row>
     <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
       <c r="H31" s="14"/>
     </row>
     <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
     </row>
     <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
     </row>
     <row r="34" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
     </row>
     <row r="35" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
     </row>
     <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
     </row>
     <row r="37" spans="1:7" ht="101.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
     </row>
     <row r="38" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="39" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8153,8 +8158,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:8" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="29" t="s">
         <v>70</v>
       </c>
     </row>
@@ -8162,14 +8167,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -8198,72 +8203,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
     </row>
     <row r="13" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
     </row>
     <row r="14" spans="1:8" ht="1.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
     </row>
     <row r="15" spans="1:8" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8313,8 +8318,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:8" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="29" t="s">
         <v>94</v>
       </c>
     </row>
@@ -8322,14 +8327,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -8408,72 +8413,72 @@
       <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
       <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
     </row>
     <row r="20" spans="1:7" ht="101.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
     </row>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8531,8 +8536,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:8" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="29" t="s">
         <v>73</v>
       </c>
     </row>
@@ -8540,14 +8545,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -8626,72 +8631,72 @@
       <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
       <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
     </row>
     <row r="20" spans="1:7" ht="101.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
     </row>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">

--- a/2019-06-16.xlsx
+++ b/2019-06-16.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\ttyc\tcyy.bate0530\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tcyy\tcyy.bate\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050" firstSheet="28" activeTab="32"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="28" r:id="rId1"/>
@@ -36,13 +36,22 @@
     <sheet name="基础数据-查询字典列表" sheetId="51" r:id="rId22"/>
     <sheet name="检查用户是否维护公司" sheetId="53" r:id="rId23"/>
     <sheet name="检查用户是否简历" sheetId="54" r:id="rId24"/>
+    <sheet name="获取登录用户发布的课程列表" sheetId="55" r:id="rId25"/>
+    <sheet name="课程视频发布" sheetId="56" r:id="rId26"/>
+    <sheet name="查看课程详情" sheetId="57" r:id="rId27"/>
+    <sheet name="搜索视频课程信息分页列表" sheetId="58" r:id="rId28"/>
+    <sheet name="获取当前用户购买的课程记录" sheetId="59" r:id="rId29"/>
+    <sheet name="获取当前用户售卖的课程记录" sheetId="60" r:id="rId30"/>
+    <sheet name="存储购买信息记录" sheetId="61" r:id="rId31"/>
+    <sheet name="存储用户观看记录" sheetId="62" r:id="rId32"/>
+    <sheet name="获取当前用户观看记录" sheetId="63" r:id="rId33"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="462">
   <si>
     <t>目录</t>
   </si>
@@ -2385,6 +2394,757 @@
     },
     "body": [ 
             </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+    ]
+}</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>七</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.获取登录用户发布的课程列表 </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.课程视频发布</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.查看课程详情</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.搜索视频课程信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>八</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程购买信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.获取当前用户售卖的课程记录</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.获取当前用户购买的课程记录</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.存储购买信息记录</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.存储用户观看记录</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.获取当前用户观看记录</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>http://m.tianchiyueya.com:1888/tcyy/</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>courses/getCoursesList</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取登录用户发布的课程列表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+    "header": {
+        "status": 2001,
+        "msg": "查询成功",
+        "t": "2019-06-19 21:52:28"
+    },
+    "body": [ 
+            {
+              "id":"1", 
+              "title":"工程学培训"
+            }
+        ]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+    ]
+}</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程标题</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>http://m.tianchiyueya.com:1888/tcyy/</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>courses/saveCourseAndVideos</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程视频发布</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>gid</t>
+  </si>
+  <si>
+    <t>cid</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>可无此参数</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类编号</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctitle</t>
+  </si>
+  <si>
+    <t>ccontents</t>
+  </si>
+  <si>
+    <t>ctype</t>
+  </si>
+  <si>
+    <t>1-单集/2-多集</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程描述</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程标题</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>课程单价</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>oneprice</t>
+  </si>
+  <si>
+    <t>买断价</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>vtitle</t>
+  </si>
+  <si>
+    <t>视频标题</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>vcontents</t>
+  </si>
+  <si>
+    <t>视频描述</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>urls</t>
+  </si>
+  <si>
+    <t>视频url</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>episodes</t>
+  </si>
+  <si>
+    <t>集数</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+    "header": {
+        "status": 2001,
+        "msg": "发布成功",
+        "t": "2019-06-19 21:52:28"
+    },
+    "body": [ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]
+}</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取课程详情</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>http://m.tianchiyueya.com:1888/tcyy/</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>courses/coursesDetails</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cid</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程编号</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程标题</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+    "header": {
+        "status": 2001,
+        "msg": "查询成功",
+        "t": "2019-06-19 21:52:28"
+    },
+    "body": [ 
+           "id":"2",
+           "title":"  "培训课程",
+           "contents":"  "此课程好",
+           "ctype":"  "1",
+           "price":"  "2.00",
+           "oneprice  "12.00", 
+           "videosList":[
+                      {"id":"12",
+                      "cid":"2",
+                      "title":"  "培训课程",
+                      "contents":"  "此课程好",
+                      "prices":"2.00",
+                      "urls":"xxx.mp4",
+                      "views":"100",
+                      "ctime":"2019-07-13"
+           }],
+           "videoIds":"12,13,299,300"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+    ]
+}</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>contents</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctype</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程类型 1-单集 2-多集</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>oneprice</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>单集价格</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>videosList</t>
+  </si>
+  <si>
+    <t>视频编号</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频标题</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频描述</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>urls</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>views</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctime</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布时间</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>观看量</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频URL</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程编号</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>videoIds</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频id串</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://m.tianchiyueya.com:1888/tcyy/courses/search</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>esc / asc</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类编号</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+    "header": {
+        "status": 2001,
+        "msg": "查询成功",
+        "t": "2019-06-19 21:52:28"
+    },
+    "body": [ 
+           "cid":"333",
+           "ctitle":"xxx",
+           "gid":"12",
+           "vid":"1121",
+           "vtitle":"xxx",
+           "prices":12,
+           "ctime":"2019-07-13",
+           "views":"1121"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+    ]
+}</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctitle</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类编号</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>gid</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>vid</t>
+  </si>
+  <si>
+    <t>vid</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频编号</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>vtitle</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频标题</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>prices</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频单价价格</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布时间</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览量</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索获取视频课程信息分页列表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>http://m.tianchiyueya.com:1888/tcyy/</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>coursesuser/getUserSellRecords</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取当前用户购买的课程记录</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买时间</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付价格</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>btimes</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>multiinfo</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>amounts</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+    "header": {
+        "status": 2001,
+        "msg": "查询成功",
+        "t": "2019-06-19 21:52:28"
+    },
+    "body": [ 
+          "id":"11",
+           "btimes":"2019-07-12 12:12:11",
+           "multiinfo":"12,32",
+           "amounts":"123.00"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+    ]
+}</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买用户编号</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+    "header": {
+        "status": 2001,
+        "msg": "查询成功",
+        "t": "2019-06-19 21:52:28"
+    },
+    "body": [ 
+          "id":"11",
+          "uid":"1",
+          "cid":"112",
+           "btimes":"2019-07-12 12:12:11",
+           "multiinfo":"12,32",
+           "amounts":"123.00"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+    ]
+}</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取当前用户售卖的课程记录</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://m.tianchiyueya.com:1888/tcyy/coursesuser/getUserPurchaseRecords</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>http://m.tianchiyueya.com:1888/tcyy/courses</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>user/storagePaidCourseInfo</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>multiinfo</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>amounts</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+    "header": {
+        "status": 2001,
+        "msg": "记录成功",
+        "t": "2019-06-19 21:52:28"
+    },
+    "body": [ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]
+}</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://m.tianchiyueya.com:1888/tcyy/coursesvideos/storageViewVideoRecord</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频编号</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>vtime</t>
+  </si>
+  <si>
+    <t>观看时间</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://m.tianchiyueya.com:1888/tcyy/coursesvideos/queryViewVideoRecords</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取当前用户观看记录列表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>vid</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>vtime</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频编号</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>观看时间</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+    "header": {
+        "status": 2001,
+        "msg": "查询成功",
+        "t": "2019-06-19 21:52:28"
+    },
+    "body": [ 
+          "id":"11",
+          "vid":"1",
+          "vtime":"2019-07-12 00:00:00"</t>
     </r>
     <r>
       <rPr>
@@ -2540,7 +3300,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2617,6 +3377,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2949,10 +3715,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="30.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3125,6 +3891,67 @@
     <row r="29" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="25" t="s">
         <v>334</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="27" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="27" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="1" t="s">
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -3180,8 +4007,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:8" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="31" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3189,14 +4016,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -3257,72 +4084,72 @@
       <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
       <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
     </row>
     <row r="19" spans="1:7" ht="101.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3361,6 +4188,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -3379,8 +4207,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:8" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="31" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3388,14 +4216,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -3424,72 +4252,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
     </row>
     <row r="15" spans="1:8" ht="274.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3699,6 +4527,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -3717,8 +4546,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:8" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="31" t="s">
         <v>167</v>
       </c>
     </row>
@@ -3726,14 +4555,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -3762,72 +4591,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
     </row>
     <row r="15" spans="1:8" ht="83.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3973,6 +4802,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
@@ -3991,8 +4821,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:8" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="31" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4000,14 +4830,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -4036,72 +4866,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
     </row>
     <row r="15" spans="1:8" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4247,6 +5077,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -4265,8 +5096,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:8" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="31" t="s">
         <v>179</v>
       </c>
     </row>
@@ -4274,14 +5105,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -4310,72 +5141,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
     </row>
     <row r="15" spans="1:8" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4524,8 +5355,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:7" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="31" t="s">
         <v>192</v>
       </c>
     </row>
@@ -4533,14 +5364,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -4648,72 +5479,72 @@
       <c r="A17" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="35" t="s">
         <v>220</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
       <c r="H17" s="14"/>
     </row>
     <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
       <c r="H18" s="14"/>
     </row>
     <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
     </row>
     <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
     </row>
     <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
     </row>
     <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
     </row>
     <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
     </row>
     <row r="24" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
     </row>
     <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4760,6 +5591,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4778,8 +5610,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:8" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="31" t="s">
         <v>223</v>
       </c>
     </row>
@@ -4787,14 +5619,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -4823,72 +5655,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="35" t="s">
         <v>219</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
     </row>
     <row r="15" spans="1:8" ht="150.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5050,6 +5882,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5068,8 +5901,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:8" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="31" t="s">
         <v>222</v>
       </c>
     </row>
@@ -5077,14 +5910,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -5113,72 +5946,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="35" t="s">
         <v>224</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
     </row>
     <row r="15" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5298,6 +6131,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0"/>
@@ -5316,8 +6150,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:8" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="31" t="s">
         <v>273</v>
       </c>
     </row>
@@ -5325,14 +6159,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="32" t="s">
         <v>256</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -5380,72 +6214,72 @@
       <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="35" t="s">
         <v>263</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
       <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
       <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
     </row>
     <row r="17" spans="1:7" ht="196.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5548,6 +6382,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5568,8 +6403,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:8" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="31" t="s">
         <v>280</v>
       </c>
     </row>
@@ -5577,14 +6412,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="32" t="s">
         <v>274</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -5658,72 +6493,72 @@
       <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="35" t="s">
         <v>286</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
       <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
     </row>
     <row r="20" spans="1:7" ht="196.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
     </row>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5865,8 +6700,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:7" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5874,70 +6709,70 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
@@ -5989,10 +6824,11 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B5" sqref="B5:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6009,8 +6845,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:8" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="31" t="s">
         <v>305</v>
       </c>
     </row>
@@ -6018,14 +6854,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="32" t="s">
         <v>256</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -6068,72 +6904,72 @@
       <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="35" t="s">
         <v>316</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
       <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
       <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
     </row>
     <row r="17" spans="1:7" ht="196.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6236,6 +7072,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet21"/>
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6256,8 +7093,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:8" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="31" t="s">
         <v>304</v>
       </c>
     </row>
@@ -6265,14 +7102,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="32" t="s">
         <v>320</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -6304,72 +7141,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="35" t="s">
         <v>323</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
     </row>
     <row r="15" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6408,6 +7245,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet22"/>
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -6428,8 +7266,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:8" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="31" t="s">
         <v>303</v>
       </c>
     </row>
@@ -6437,14 +7275,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="32" t="s">
         <v>325</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -6473,72 +7311,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="35" t="s">
         <v>326</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
     </row>
     <row r="15" spans="1:8" ht="196.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6580,6 +7418,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet23"/>
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6598,8 +7437,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:8" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="31" t="s">
         <v>335</v>
       </c>
     </row>
@@ -6607,14 +7446,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="32" t="s">
         <v>340</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -6643,72 +7482,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="35" t="s">
         <v>341</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
     </row>
     <row r="15" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6837,6 +7676,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet24"/>
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6855,8 +7695,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:8" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="31" t="s">
         <v>335</v>
       </c>
     </row>
@@ -6864,14 +7704,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="32" t="s">
         <v>339</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -6900,72 +7740,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="35" t="s">
         <v>342</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
     </row>
     <row r="15" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7084,6 +7924,1319 @@
     <mergeCell ref="B8:G15"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="A1" location="目录!A35" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet25"/>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.75" customWidth="1"/>
+    <col min="7" max="7" width="55.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="31" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>356</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="C5" s="16"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>359</v>
+      </c>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="14"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+    </row>
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+    </row>
+    <row r="15" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B18" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>361</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:XFD2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B8:G15"/>
+  </mergeCells>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="A1" location="目录!A35" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet26"/>
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.875" customWidth="1"/>
+    <col min="3" max="3" width="22.75" customWidth="1"/>
+    <col min="7" max="7" width="35.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="31" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>362</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>386</v>
+      </c>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="14"/>
+    </row>
+    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="14"/>
+    </row>
+    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+    </row>
+    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+    </row>
+    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+    </row>
+    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+    </row>
+    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+    </row>
+    <row r="24" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+    </row>
+    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="C26" s="16"/>
+    </row>
+    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="20"/>
+      <c r="C27" s="16"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B28" s="20"/>
+      <c r="C28" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:XFD2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B17:G24"/>
+  </mergeCells>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="A1" location="目录!A35" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet27"/>
+  <dimension ref="A1:H39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="26.75" customWidth="1"/>
+    <col min="7" max="7" width="55.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="31" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>389</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>394</v>
+      </c>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="14"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+    </row>
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+    </row>
+    <row r="15" spans="1:8" ht="207.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B19" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B20" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B21" s="20" t="s">
+        <v>398</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B22" s="20" t="s">
+        <v>399</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B23" s="20" t="s">
+        <v>401</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C24" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C25" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C26" s="20" t="s">
+        <v>405</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C27" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B28" s="16"/>
+      <c r="C28" s="20" t="s">
+        <v>406</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B29" s="16"/>
+      <c r="C29" s="20" t="s">
+        <v>407</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B30" s="16"/>
+      <c r="C30" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B31" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:XFD2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B8:G15"/>
+  </mergeCells>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="A1" location="目录!A35" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet28"/>
+  <dimension ref="A1:H42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="26.75" customWidth="1"/>
+    <col min="7" max="7" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="31" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>416</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>420</v>
+      </c>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="14"/>
+    </row>
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="14"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+    </row>
+    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+    </row>
+    <row r="18" spans="1:7" ht="102" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+    </row>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B22" s="20" t="s">
+        <v>423</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B23" s="20" t="s">
+        <v>425</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B24" s="20" t="s">
+        <v>427</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B25" s="20" t="s">
+        <v>429</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B26" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="D26" s="16"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B27" s="20" t="s">
+        <v>407</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>432</v>
+      </c>
+      <c r="D27" s="16"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C28" s="20"/>
+      <c r="D28" s="16"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C29" s="20"/>
+      <c r="D29" s="16"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C30" s="20"/>
+      <c r="D30" s="16"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B31" s="16"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="16"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B32" s="16"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="16"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B33" s="16"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="16"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B34" s="16"/>
+      <c r="C34" s="20"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:XFD2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B11:G18"/>
+  </mergeCells>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="A1" location="目录!A35" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet29"/>
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="26.75" customWidth="1"/>
+    <col min="7" max="7" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="31" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>446</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>441</v>
+      </c>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="14"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+    </row>
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+    </row>
+    <row r="15" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B18" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="D18" s="16"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B19" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="D19" s="16"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B20" s="16" t="s">
+        <v>440</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>437</v>
+      </c>
+      <c r="D20" s="16"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C21" s="20"/>
+      <c r="D21" s="16"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C22" s="20"/>
+      <c r="D22" s="16"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B23" s="16"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="16"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B24" s="16"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="16"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B25" s="16"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="16"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B26" s="16"/>
+      <c r="C26" s="20"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:XFD2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B8:G15"/>
+  </mergeCells>
+  <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="A1" location="目录!A35" display="返回"/>
@@ -7113,8 +9266,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:7" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="31" t="s">
         <v>61</v>
       </c>
     </row>
@@ -7122,14 +9275,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -7248,72 +9401,72 @@
       <c r="A18" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
       <c r="H18" s="14"/>
     </row>
     <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
       <c r="H19" s="14"/>
     </row>
     <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
     </row>
     <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
     </row>
     <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
     </row>
     <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
     </row>
     <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
     </row>
     <row r="25" spans="1:8" ht="101.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
     </row>
     <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7350,6 +9503,910 @@
     <mergeCell ref="B18:G25"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="A1" location="目录!A35" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet30"/>
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="26.75" customWidth="1"/>
+    <col min="7" max="7" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="31" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>434</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>444</v>
+      </c>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="14"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+    </row>
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+    </row>
+    <row r="15" spans="1:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="16" t="s">
+        <v>442</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B20" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="D20" s="16"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B21" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="D21" s="16"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B22" s="16" t="s">
+        <v>440</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>437</v>
+      </c>
+      <c r="D22" s="16"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C23" s="20"/>
+      <c r="D23" s="16"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C24" s="20"/>
+      <c r="D24" s="16"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B25" s="16"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="16"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B26" s="16"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="16"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B27" s="16"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="16"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B28" s="16"/>
+      <c r="C28" s="20"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:XFD2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B8:G15"/>
+  </mergeCells>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="A1" location="目录!A35" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet31"/>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.875" customWidth="1"/>
+    <col min="3" max="3" width="22.75" customWidth="1"/>
+    <col min="7" max="7" width="35.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="31" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>447</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="16" t="s">
+        <v>448</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="16" t="s">
+        <v>449</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>450</v>
+      </c>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="14"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+    </row>
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+    </row>
+    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+    </row>
+    <row r="16" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+    </row>
+    <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="C18" s="16"/>
+    </row>
+    <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="20"/>
+      <c r="C19" s="16"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B20" s="20"/>
+      <c r="C20" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:XFD2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B9:G16"/>
+  </mergeCells>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="A1" location="目录!A35" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet32"/>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.875" customWidth="1"/>
+    <col min="3" max="3" width="22.75" customWidth="1"/>
+    <col min="7" max="7" width="35.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="31" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="15" t="s">
+        <v>453</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="16" t="s">
+        <v>449</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>450</v>
+      </c>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="14"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+    </row>
+    <row r="12" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+    </row>
+    <row r="14" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+    </row>
+    <row r="15" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+    </row>
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+    </row>
+    <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="C18" s="16"/>
+    </row>
+    <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="20"/>
+      <c r="C19" s="16"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B20" s="20"/>
+      <c r="C20" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:XFD2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B9:G16"/>
+  </mergeCells>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="A1" location="目录!A35" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet33"/>
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="26.75" customWidth="1"/>
+    <col min="7" max="7" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="31" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>455</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>461</v>
+      </c>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="14"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+    </row>
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+    </row>
+    <row r="15" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="16" t="s">
+        <v>457</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="16" t="s">
+        <v>458</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B21" s="16"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="16"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B22" s="16"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="16"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C23" s="20"/>
+      <c r="D23" s="16"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C24" s="20"/>
+      <c r="D24" s="16"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B25" s="16"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="16"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B26" s="16"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="16"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B27" s="16"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="16"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B28" s="16"/>
+      <c r="C28" s="20"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:XFD2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B8:G15"/>
+  </mergeCells>
+  <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="A1" location="目录!A35" display="返回"/>
@@ -7379,8 +10436,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:8" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="31" t="s">
         <v>62</v>
       </c>
     </row>
@@ -7388,14 +10445,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -7424,72 +10481,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
     </row>
     <row r="15" spans="1:8" ht="101.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7580,8 +10637,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:8" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="31" t="s">
         <v>63</v>
       </c>
     </row>
@@ -7589,14 +10646,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -7625,72 +10682,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
     </row>
     <row r="15" spans="1:8" ht="101.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7804,8 +10861,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:7" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="31" t="s">
         <v>64</v>
       </c>
     </row>
@@ -7813,14 +10870,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -8028,72 +11085,72 @@
       <c r="A30" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
       <c r="H30" s="14"/>
     </row>
     <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
       <c r="H31" s="14"/>
     </row>
     <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
     </row>
     <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
     </row>
     <row r="34" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
     </row>
     <row r="35" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
     </row>
     <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
     </row>
     <row r="37" spans="1:7" ht="101.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
     </row>
     <row r="38" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="39" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8158,8 +11215,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:8" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="31" t="s">
         <v>70</v>
       </c>
     </row>
@@ -8167,14 +11224,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -8203,72 +11260,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
     </row>
     <row r="13" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
     </row>
     <row r="14" spans="1:8" ht="1.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
     </row>
     <row r="15" spans="1:8" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8318,8 +11375,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:8" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="31" t="s">
         <v>94</v>
       </c>
     </row>
@@ -8327,14 +11384,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -8413,72 +11470,72 @@
       <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
       <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
     </row>
     <row r="20" spans="1:7" ht="101.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
     </row>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8536,8 +11593,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:8" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="31" t="s">
         <v>73</v>
       </c>
     </row>
@@ -8545,14 +11602,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -8631,72 +11688,72 @@
       <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
       <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
     </row>
     <row r="20" spans="1:7" ht="101.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
     </row>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">

--- a/2019-06-16.xlsx
+++ b/2019-06-16.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\ttyc\tcyy.bate0530\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tcyy\tcyy.bate\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050" firstSheet="22" activeTab="27"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="28" r:id="rId1"/>
@@ -27,35 +27,36 @@
     <sheet name="简历-教育经历维护" sheetId="36" r:id="rId13"/>
     <sheet name="简历-资格证书维护" sheetId="37" r:id="rId14"/>
     <sheet name="个人简历详情" sheetId="38" r:id="rId15"/>
-    <sheet name="工作经历详情" sheetId="39" r:id="rId16"/>
-    <sheet name="教育经历详情" sheetId="42" r:id="rId17"/>
-    <sheet name="资格证书详情" sheetId="40" r:id="rId18"/>
-    <sheet name="职位新增-更新维护" sheetId="44" r:id="rId19"/>
-    <sheet name="职位详情" sheetId="45" r:id="rId20"/>
-    <sheet name="删除职位" sheetId="46" r:id="rId21"/>
-    <sheet name="公司-查询简历列表" sheetId="47" r:id="rId22"/>
-    <sheet name="会员-查询职位列表" sheetId="48" r:id="rId23"/>
-    <sheet name="公司-查询投递职位简历列表" sheetId="49" r:id="rId24"/>
-    <sheet name="基础数据-区域获取" sheetId="50" r:id="rId25"/>
-    <sheet name="基础数据-查询字典列表" sheetId="51" r:id="rId26"/>
-    <sheet name="检查用户是否维护公司" sheetId="53" r:id="rId27"/>
-    <sheet name="检查用户是否简历" sheetId="54" r:id="rId28"/>
-    <sheet name="获取登录用户发布的课程列表" sheetId="55" r:id="rId29"/>
-    <sheet name="课程视频发布" sheetId="56" r:id="rId30"/>
-    <sheet name="查看课程详情" sheetId="57" r:id="rId31"/>
-    <sheet name="搜索视频课程信息分页列表" sheetId="58" r:id="rId32"/>
-    <sheet name="获取当前用户购买的课程记录" sheetId="59" r:id="rId33"/>
-    <sheet name="获取当前用户售卖的课程记录" sheetId="60" r:id="rId34"/>
-    <sheet name="存储购买信息记录" sheetId="61" r:id="rId35"/>
-    <sheet name="存储用户观看记录" sheetId="62" r:id="rId36"/>
-    <sheet name="获取当前用户观看记录" sheetId="63" r:id="rId37"/>
+    <sheet name="根据登录用户获取个人简历" sheetId="68" r:id="rId16"/>
+    <sheet name="工作经历详情" sheetId="39" r:id="rId17"/>
+    <sheet name="教育经历详情" sheetId="42" r:id="rId18"/>
+    <sheet name="资格证书详情" sheetId="40" r:id="rId19"/>
+    <sheet name="职位新增-更新维护" sheetId="44" r:id="rId20"/>
+    <sheet name="职位详情" sheetId="45" r:id="rId21"/>
+    <sheet name="删除职位" sheetId="46" r:id="rId22"/>
+    <sheet name="公司-查询简历列表" sheetId="47" r:id="rId23"/>
+    <sheet name="会员-查询职位列表" sheetId="48" r:id="rId24"/>
+    <sheet name="公司-查询投递职位简历列表" sheetId="49" r:id="rId25"/>
+    <sheet name="基础数据-区域获取" sheetId="50" r:id="rId26"/>
+    <sheet name="基础数据-查询字典列表" sheetId="51" r:id="rId27"/>
+    <sheet name="检查用户是否维护公司" sheetId="53" r:id="rId28"/>
+    <sheet name="检查用户是否简历" sheetId="54" r:id="rId29"/>
+    <sheet name="获取登录用户发布的课程列表" sheetId="55" r:id="rId30"/>
+    <sheet name="课程视频发布" sheetId="56" r:id="rId31"/>
+    <sheet name="查看课程详情" sheetId="57" r:id="rId32"/>
+    <sheet name="搜索视频课程信息分页列表" sheetId="58" r:id="rId33"/>
+    <sheet name="获取当前用户购买的课程记录" sheetId="59" r:id="rId34"/>
+    <sheet name="获取当前用户售卖的课程记录" sheetId="60" r:id="rId35"/>
+    <sheet name="存储购买信息记录" sheetId="61" r:id="rId36"/>
+    <sheet name="存储用户观看记录" sheetId="62" r:id="rId37"/>
+    <sheet name="获取当前用户观看记录" sheetId="63" r:id="rId38"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="500">
   <si>
     <t>目录</t>
   </si>
@@ -763,32 +764,6 @@
   </si>
   <si>
     <t>7.教育经历详情</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.简历详情</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>http://m.tianchiyueya.com:1888/tcyy/</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>personalresume/getResumeDetail</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取个人简历详情</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -3453,6 +3428,73 @@
   </si>
   <si>
     <t>操作成功</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取查看个人简历详情</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://m.tianchiyueya.com:1888/tcyy/personalresume/viewResumeDetail</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据登录用户获取个人简历信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://m.tianchiyueya.com:1888/tcyy/personalresume/getPersonalResumeDetail</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+    "header": {
+        "status": 2001,
+        "msg": "获取成功",
+        "t": "2019-06-19 21:52:28"
+    },
+    "body": [ 
+            'id':'id',
+            'personname':'personname',
+            'birthday': 'birthday',
+            'expectregion':'expectregion' ,
+            'telephone:'telephone' ,
+            'education':education' ,
+            'email':'email' ,
+            'jobstatus':'jobstatus' ,
+            'marriage':'marriage',
+            'wages':'wages' ,
+            'positiontype:'positiontype' ,
+            'selfevaluation':'selfevaluation' ,
+            'jointime':'jointime',
+            'arrivaltime':'arrivaltime' ,
+            'intentposition':'intentposition' ,
+            'worknature':'worknature' ,       
+            'sex' :'sex',
+            'ethnic':'ethnic',
+            'workexperience':'workexperience',
+            'address':'address' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+    ]
+}</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.简历详情</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>15.根据用户获取简历信息(不包含教育、工作、证书)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3605,7 +3647,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3701,6 +3743,12 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4032,10 +4080,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="30.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4069,12 +4117,12 @@
     </row>
     <row r="4" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="30" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="30" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -4084,17 +4132,17 @@
     </row>
     <row r="7" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -4107,22 +4155,22 @@
     </row>
     <row r="11" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="18" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="18" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="18" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="18" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -4142,158 +4190,163 @@
     </row>
     <row r="18" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="18" t="s">
-        <v>96</v>
+        <v>498</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="18" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="18" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="29" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="29" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="29" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="29" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="10" t="s">
+      <c r="B25" s="33" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="21" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="18" t="s">
-        <v>250</v>
+      <c r="B26" s="21" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="18" t="s">
-        <v>296</v>
+        <v>247</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="10"/>
       <c r="B28" s="18" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="10"/>
+      <c r="B29" s="18" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
     <row r="30" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="23" t="s">
-        <v>322</v>
+      <c r="A30" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="23" t="s">
-        <v>297</v>
+        <v>319</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>326</v>
+      <c r="B32" s="23" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="25" t="s">
-        <v>327</v>
+      <c r="A33" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="25" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>338</v>
+      <c r="B35" s="25" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="29" t="s">
-        <v>339</v>
+      <c r="A36" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="29" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="29" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="29" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="29" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="29" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>344</v>
+      <c r="B42" s="29" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="29" t="s">
-        <v>346</v>
+      <c r="A43" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="29" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="29" t="s">
-        <v>347</v>
+        <v>342</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B46" s="29" t="s">
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -4312,30 +4365,31 @@
     <hyperlink ref="B4" location="'个人公司新增-更新维护'!A1" display="1、公司增加/更新维护"/>
     <hyperlink ref="B5" location="公司查询收藏简历记录!A1" display="2、公司查询收藏简历记录"/>
     <hyperlink ref="B6" location="会员企业查询浏览简历历史!A1" display="3.会员企业查询浏览简历历史"/>
-    <hyperlink ref="B26" location="'职位新增-更新维护'!A1" display="1.职位添加/修改"/>
-    <hyperlink ref="B27" location="删除职位!A1" display="2、职位删除"/>
-    <hyperlink ref="B28" location="职位详情!A1" display="3.职位详情"/>
+    <hyperlink ref="B27" location="'职位新增-更新维护'!A1" display="1.职位添加/修改"/>
+    <hyperlink ref="B28" location="删除职位!A1" display="2、职位删除"/>
+    <hyperlink ref="B29" location="职位详情!A1" display="3.职位详情"/>
     <hyperlink ref="B7" location="'公司-查询简历列表'!A1" display="4.查询简历列表"/>
     <hyperlink ref="B20" location="'会员-查询职位列表'!A1" display="10、查询职位列表"/>
-    <hyperlink ref="B30" location="'基础数据-区域获取'!A1" display="1.查询区域"/>
-    <hyperlink ref="B31" location="'基础数据-查询字典列表'!A1" display="2.字典列表"/>
-    <hyperlink ref="B33" location="检查用户是否维护公司!A1" display="1.检查是否维护公司信息"/>
-    <hyperlink ref="B34" location="检查用户是否简历!A1" display="2.检查是否维护简历信息"/>
+    <hyperlink ref="B31" location="'基础数据-区域获取'!A1" display="1.查询区域"/>
+    <hyperlink ref="B32" location="'基础数据-查询字典列表'!A1" display="2.字典列表"/>
+    <hyperlink ref="B34" location="检查用户是否维护公司!A1" display="1.检查是否维护公司信息"/>
+    <hyperlink ref="B35" location="检查用户是否简历!A1" display="2.检查是否维护简历信息"/>
     <hyperlink ref="B9" location="企业收藏简历!A1" display="6.企业收藏简历"/>
     <hyperlink ref="B8" location="'公司-查询投递职位简历列表'!A1" display="5.查询投递公司职位的简历列表"/>
     <hyperlink ref="B21" location="获取个人简历投递的职位列表!A1" display="11.我的简历投递职位列表"/>
     <hyperlink ref="B22" location="教育经历删除!A1" display="12.删除教育经历"/>
     <hyperlink ref="B23" location="资格证书删除!A1" display="13.删除职业资格证书"/>
     <hyperlink ref="B24" location="工作经历删除!A1" display="14.删除工作经历"/>
-    <hyperlink ref="B36" location="获取登录用户发布的课程列表!A1" display="1.获取登录用户发布的课程列表 "/>
-    <hyperlink ref="B37" location="课程视频发布!A1" display="2.课程视频发布"/>
-    <hyperlink ref="B38" location="查看课程详情!A1" display="3.查看课程详情"/>
-    <hyperlink ref="B39" location="搜索视频课程信息分页列表!A1" display="4.搜索视频课程信息"/>
-    <hyperlink ref="B40" location="存储用户观看记录!A1" display="5.存储用户观看记录"/>
-    <hyperlink ref="B41" location="获取当前用户观看记录!A1" display="6.获取当前用户观看记录"/>
-    <hyperlink ref="B43" location="获取当前用户购买的课程记录!A1" display="1.获取当前用户购买的课程记录"/>
-    <hyperlink ref="B44" location="获取当前用户售卖的课程记录!A1" display="2.获取当前用户售卖的课程记录"/>
-    <hyperlink ref="B45" location="存储购买信息记录!A1" display="3.存储购买信息记录"/>
+    <hyperlink ref="B37" location="获取登录用户发布的课程列表!A1" display="1.获取登录用户发布的课程列表 "/>
+    <hyperlink ref="B38" location="课程视频发布!A1" display="2.课程视频发布"/>
+    <hyperlink ref="B39" location="查看课程详情!A1" display="3.查看课程详情"/>
+    <hyperlink ref="B40" location="搜索视频课程信息分页列表!A1" display="4.搜索视频课程信息"/>
+    <hyperlink ref="B41" location="存储用户观看记录!A1" display="5.存储用户观看记录"/>
+    <hyperlink ref="B42" location="获取当前用户观看记录!A1" display="6.获取当前用户观看记录"/>
+    <hyperlink ref="B44" location="获取当前用户购买的课程记录!A1" display="1.获取当前用户购买的课程记录"/>
+    <hyperlink ref="B45" location="获取当前用户售卖的课程记录!A1" display="2.获取当前用户售卖的课程记录"/>
+    <hyperlink ref="B46" location="存储购买信息记录!A1" display="3.存储购买信息记录"/>
+    <hyperlink ref="B25" location="根据登录用户获取个人简历!A1" display="15.根据用户获取简历信息(不包含教育、工作、证书)"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4361,26 +4415,26 @@
   <sheetData>
     <row r="1" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35" t="s">
-        <v>477</v>
+        <v>465</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="37" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>476</v>
-      </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
+      <c r="B3" s="38" t="s">
+        <v>473</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -4400,18 +4454,18 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4419,72 +4473,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="39" t="s">
-        <v>478</v>
-      </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
+      <c r="B8" s="41" t="s">
+        <v>475</v>
+      </c>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
     </row>
     <row r="15" spans="1:8" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4492,56 +4546,56 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="16" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C19" s="16" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B20" s="16"/>
       <c r="C20" s="16" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B21" s="16"/>
       <c r="C21" s="16" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B22" s="16"/>
       <c r="C22" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="D22" s="16" t="s">
         <v>305</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
@@ -4549,7 +4603,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C24" s="28">
         <v>1</v>
@@ -4587,23 +4641,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35" t="s">
-        <v>464</v>
+    <row r="2" spans="1:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="37" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>465</v>
-      </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
+      <c r="B3" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -4623,10 +4677,10 @@
         <v>18</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4635,72 +4689,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="39" t="s">
-        <v>466</v>
-      </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
+      <c r="B8" s="41" t="s">
+        <v>463</v>
+      </c>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
     </row>
     <row r="12" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
     </row>
     <row r="13" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
     </row>
     <row r="14" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
     </row>
     <row r="15" spans="1:8" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4750,8 +4804,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="37" t="s">
         <v>90</v>
       </c>
     </row>
@@ -4759,14 +4813,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -4789,55 +4843,55 @@
         <v>66</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="16" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="16" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="16" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="16" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4845,72 +4899,72 @@
       <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
       <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
     </row>
     <row r="20" spans="1:7" ht="101.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
     </row>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4968,8 +5022,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="37" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4977,14 +5031,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -5004,55 +5058,55 @@
         <v>18</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="16" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="16" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="16" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="16" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="16" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -5063,72 +5117,72 @@
       <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
       <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
     </row>
     <row r="20" spans="1:7" ht="101.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
     </row>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5194,8 +5248,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="37" t="s">
         <v>91</v>
       </c>
     </row>
@@ -5203,14 +5257,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -5230,39 +5284,39 @@
         <v>18</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="20" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="20" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>179</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="20" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5271,72 +5325,72 @@
       <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
       <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
     </row>
     <row r="19" spans="1:7" ht="101.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5378,9 +5432,7 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:C35"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5394,23 +5446,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35" t="s">
-        <v>98</v>
+    <row r="2" spans="1:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="37" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
+      <c r="B3" s="38" t="s">
+        <v>494</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -5439,72 +5491,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
+      <c r="B8" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
     </row>
     <row r="15" spans="1:8" ht="274.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5512,189 +5564,189 @@
         <v>19</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B19" s="16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B20" s="16" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B21" s="16" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B22" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="16" t="s">
         <v>114</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B23" s="16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B24" s="16" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B25" s="16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B26" s="16" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B27" s="16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B28" s="16" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B29" s="16" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B30" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B31" s="16" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B32" s="16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B33" s="16" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B34" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B35" s="16" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B36" s="16" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B37" s="16" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B38" s="16" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B39" s="16" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -5713,6 +5765,330 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="7" max="7" width="55.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="37" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>496</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="16"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>497</v>
+      </c>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="14"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+    </row>
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+    </row>
+    <row r="15" spans="1:8" ht="274.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B19" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B20" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B21" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B22" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B23" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B24" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B25" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B26" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B27" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B28" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B29" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B30" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B31" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B32" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B33" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B34" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B35" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B36" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:XFD2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B8:G15"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="A1" location="目录!A35" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:H39"/>
@@ -5733,23 +6109,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35" t="s">
-        <v>163</v>
+    <row r="2" spans="1:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="37" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
+      <c r="B3" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -5778,72 +6154,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="39" t="s">
-        <v>148</v>
-      </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
+      <c r="B8" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
     </row>
     <row r="15" spans="1:8" ht="83.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5851,61 +6227,61 @@
         <v>19</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="16" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B19" s="16" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B20" s="16" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B21" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B22" s="16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B23" s="16" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
@@ -5987,7 +6363,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:H39"/>
@@ -6008,23 +6384,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35" t="s">
-        <v>164</v>
+    <row r="2" spans="1:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="37" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>165</v>
-      </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
+      <c r="B3" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -6053,72 +6429,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="39" t="s">
-        <v>166</v>
-      </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
+      <c r="B8" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
     </row>
     <row r="15" spans="1:8" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6126,61 +6502,61 @@
         <v>19</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="16" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B19" s="16" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B20" s="16" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B21" s="16" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B22" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B23" s="16" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
@@ -6262,7 +6638,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:H37"/>
@@ -6283,23 +6659,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35" t="s">
-        <v>175</v>
+    <row r="2" spans="1:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="37" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>176</v>
-      </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
+      <c r="B3" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -6328,72 +6704,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="39" t="s">
-        <v>177</v>
-      </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
+      <c r="B8" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
     </row>
     <row r="15" spans="1:8" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6401,10 +6777,10 @@
         <v>19</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6412,34 +6788,34 @@
         <v>85</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B19" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>179</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B20" s="16" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B21" s="16" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
@@ -6511,261 +6887,6 @@
     <mergeCell ref="A2:XFD2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B8:G15"/>
-  </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="A1" location="目录!A35" display="返回"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:H28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.875" customWidth="1"/>
-    <col min="7" max="7" width="35.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-    </row>
-    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="39" t="s">
-        <v>216</v>
-      </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="14"/>
-    </row>
-    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="14"/>
-    </row>
-    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-    </row>
-    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-    </row>
-    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-    </row>
-    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-    </row>
-    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-    </row>
-    <row r="24" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-    </row>
-    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B28" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>207</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:XFD2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B17:G24"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
@@ -6790,8 +6911,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="32" t="s">
+    <row r="2" spans="1:7" s="34" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="34" t="s">
         <v>2</v>
       </c>
     </row>
@@ -6799,70 +6920,70 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
@@ -6913,6 +7034,261 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet11"/>
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.875" customWidth="1"/>
+    <col min="7" max="7" width="35.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="37" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="14"/>
+    </row>
+    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="14"/>
+    </row>
+    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+    </row>
+    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+    </row>
+    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+    </row>
+    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+    </row>
+    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+    </row>
+    <row r="24" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+    </row>
+    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B28" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>204</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:XFD2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B17:G24"/>
+  </mergeCells>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="A1" location="目录!A35" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:H39"/>
@@ -6933,23 +7309,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35" t="s">
-        <v>219</v>
+    <row r="2" spans="1:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="37" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
+      <c r="B3" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -6978,72 +7354,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="39" t="s">
-        <v>215</v>
-      </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
+      <c r="B8" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
     </row>
     <row r="15" spans="1:8" ht="150.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7051,93 +7427,93 @@
         <v>19</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="20" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B19" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B20" s="20" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B21" s="20" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B22" s="20" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B23" s="20" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B24" s="20" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B25" s="20" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B26" s="20" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B27" s="20" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
@@ -7203,7 +7579,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:H39"/>
@@ -7224,23 +7600,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35" t="s">
-        <v>218</v>
+    <row r="2" spans="1:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="37" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>217</v>
-      </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
+      <c r="B3" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -7269,72 +7645,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="39" t="s">
-        <v>220</v>
-      </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
+      <c r="B8" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
     </row>
     <row r="15" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7342,7 +7718,7 @@
         <v>19</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C17" s="16"/>
     </row>
@@ -7350,7 +7726,7 @@
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
@@ -7452,7 +7828,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:H27"/>
@@ -7473,23 +7849,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35" t="s">
-        <v>268</v>
+    <row r="2" spans="1:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="37" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>251</v>
-      </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
+      <c r="B3" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -7509,26 +7885,26 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7537,72 +7913,72 @@
       <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="39" t="s">
-        <v>258</v>
-      </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
+      <c r="B10" s="41" t="s">
+        <v>255</v>
+      </c>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
       <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
       <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
     </row>
     <row r="17" spans="1:7" ht="196.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7610,79 +7986,79 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C19" t="s">
         <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C20" s="16" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C21" s="16" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B22" s="16"/>
       <c r="C22" s="16" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B23" s="16"/>
       <c r="C23" s="16" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B24" s="16"/>
       <c r="C24" s="16" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B25" s="16"/>
       <c r="C25" s="16" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B26" s="16"/>
       <c r="C26" s="16" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C27" s="17">
         <v>1</v>
@@ -7703,7 +8079,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:H33"/>
@@ -7726,23 +8102,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35" t="s">
-        <v>275</v>
+    <row r="2" spans="1:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="37" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>269</v>
-      </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
+      <c r="B3" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -7762,50 +8138,50 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7816,72 +8192,72 @@
       <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="39" t="s">
-        <v>281</v>
-      </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
+      <c r="B13" s="41" t="s">
+        <v>278</v>
+      </c>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
       <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
     </row>
     <row r="20" spans="1:7" ht="196.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
     </row>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7889,106 +8265,106 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C22" t="s">
         <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C23" s="16" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C24" s="16" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B25" s="16"/>
       <c r="C25" s="16" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B26" s="16"/>
       <c r="C26" s="16" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B27" s="16"/>
       <c r="C27" s="16" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B28" s="16"/>
       <c r="C28" s="16" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B29" s="16"/>
       <c r="C29" s="16" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B30" s="16"/>
       <c r="C30" s="16" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B31" s="16"/>
       <c r="C31" s="16" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B32" s="16"/>
       <c r="C32" s="16" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C33" s="17">
         <v>1</v>
@@ -8009,7 +8385,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:H25"/>
@@ -8029,26 +8405,26 @@
   <sheetData>
     <row r="1" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35" t="s">
-        <v>300</v>
+        <v>465</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="37" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>487</v>
-      </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
+      <c r="B3" s="38" t="s">
+        <v>484</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -8068,18 +8444,18 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8087,72 +8463,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="39" t="s">
-        <v>311</v>
-      </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
+      <c r="B8" s="41" t="s">
+        <v>308</v>
+      </c>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
     </row>
     <row r="15" spans="1:8" ht="196.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8160,79 +8536,79 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="16" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C19" s="16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B20" s="16"/>
       <c r="C20" s="16" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B21" s="16"/>
       <c r="C21" s="16" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B22" s="16"/>
       <c r="C22" s="16" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B23" s="16"/>
       <c r="C23" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="D23" s="16" t="s">
         <v>305</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B24" s="16"/>
       <c r="C24" s="16" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C25" s="22">
         <v>1</v>
@@ -8253,7 +8629,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet21"/>
   <dimension ref="A1:H18"/>
@@ -8276,23 +8652,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35" t="s">
-        <v>299</v>
+    <row r="2" spans="1:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="37" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>315</v>
-      </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
+      <c r="B3" s="38" t="s">
+        <v>312</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -8312,10 +8688,10 @@
         <v>18</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8324,72 +8700,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="39" t="s">
-        <v>318</v>
-      </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
+      <c r="B8" s="41" t="s">
+        <v>315</v>
+      </c>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
     </row>
     <row r="15" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8400,15 +8776,15 @@
         <v>20</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B18" s="16" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -8426,7 +8802,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet22"/>
   <dimension ref="A1:H21"/>
@@ -8449,23 +8825,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35" t="s">
-        <v>298</v>
+    <row r="2" spans="1:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="37" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>320</v>
-      </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
+      <c r="B3" s="38" t="s">
+        <v>317</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -8494,72 +8870,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="39" t="s">
-        <v>321</v>
-      </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
+      <c r="B8" s="41" t="s">
+        <v>318</v>
+      </c>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
     </row>
     <row r="15" spans="1:8" ht="196.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8599,7 +8975,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet23"/>
   <dimension ref="A1:H39"/>
@@ -8620,23 +8996,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35" t="s">
-        <v>329</v>
+    <row r="2" spans="1:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="37" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>334</v>
-      </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
+      <c r="B3" s="38" t="s">
+        <v>331</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -8665,72 +9041,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="39" t="s">
-        <v>335</v>
-      </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
+      <c r="B8" s="41" t="s">
+        <v>332</v>
+      </c>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
     </row>
     <row r="15" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8738,24 +9114,24 @@
         <v>19</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C17" s="16">
         <v>2001</v>
       </c>
       <c r="D17" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="19" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C18" s="16">
         <v>5001</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
@@ -8857,13 +9233,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet24"/>
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8879,23 +9255,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35" t="s">
-        <v>329</v>
+    <row r="2" spans="1:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="37" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>333</v>
-      </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
+      <c r="B3" s="38" t="s">
+        <v>330</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -8924,72 +9300,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="39" t="s">
-        <v>336</v>
-      </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
+      <c r="B8" s="41" t="s">
+        <v>333</v>
+      </c>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
     </row>
     <row r="15" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8997,18 +9373,18 @@
         <v>19</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C17" s="16">
         <v>2001</v>
       </c>
       <c r="D17" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="19" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -9019,7 +9395,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
@@ -9028,7 +9404,7 @@
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
@@ -9037,7 +9413,7 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
@@ -9125,177 +9501,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet25"/>
-  <dimension ref="A1:H18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.75" customWidth="1"/>
-    <col min="7" max="7" width="55.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>350</v>
-      </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-    </row>
-    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-    </row>
-    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="C5" s="16"/>
-    </row>
-    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>353</v>
-      </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="14"/>
-    </row>
-    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="14"/>
-    </row>
-    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-    </row>
-    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-    </row>
-    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-    </row>
-    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-    </row>
-    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-    </row>
-    <row r="15" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-    </row>
-    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B18" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>355</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:XFD2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B8:G15"/>
-  </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="A1" location="目录!A35" display="返回"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -9320,8 +9525,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:7" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="37" t="s">
         <v>59</v>
       </c>
     </row>
@@ -9329,14 +9534,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -9356,23 +9561,23 @@
         <v>18</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="15" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>82</v>
@@ -9380,74 +9585,74 @@
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="15" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9455,72 +9660,72 @@
       <c r="A18" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
       <c r="H18" s="14"/>
     </row>
     <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
       <c r="H19" s="14"/>
     </row>
     <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
     </row>
     <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
     </row>
     <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
     </row>
     <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
     </row>
     <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
     </row>
     <row r="25" spans="1:8" ht="101.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
     </row>
     <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -9566,6 +9771,177 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet25"/>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.75" customWidth="1"/>
+    <col min="7" max="7" width="55.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="37" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>347</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="C5" s="16"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>350</v>
+      </c>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="14"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+    </row>
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+    </row>
+    <row r="15" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B18" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>352</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:XFD2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B8:G15"/>
+  </mergeCells>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="A1" location="目录!A35" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet26"/>
   <dimension ref="A1:H28"/>
@@ -9587,23 +9963,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35" t="s">
-        <v>357</v>
+    <row r="2" spans="1:7" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="37" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>356</v>
-      </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
+      <c r="B3" s="38" t="s">
+        <v>353</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -9623,90 +9999,90 @@
         <v>18</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>358</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="15" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>363</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="15" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="15" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="15" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="15" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="15" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="15" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="15" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9714,72 +10090,72 @@
       <c r="A17" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="39" t="s">
-        <v>380</v>
-      </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
+      <c r="B17" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
       <c r="H17" s="14"/>
     </row>
     <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
       <c r="H18" s="14"/>
     </row>
     <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
     </row>
     <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
     </row>
     <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
     </row>
     <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
     </row>
     <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
     </row>
     <row r="24" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
     </row>
     <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -9787,7 +10163,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C26" s="16"/>
     </row>
@@ -9814,7 +10190,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet27"/>
   <dimension ref="A1:H39"/>
@@ -9836,23 +10212,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35" t="s">
-        <v>382</v>
+    <row r="2" spans="1:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="37" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>383</v>
-      </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
+      <c r="B3" s="38" t="s">
+        <v>380</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -9872,10 +10248,10 @@
         <v>18</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9884,72 +10260,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="39" t="s">
-        <v>388</v>
-      </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
+      <c r="B8" s="41" t="s">
+        <v>385</v>
+      </c>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
     </row>
     <row r="15" spans="1:8" ht="207.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -9957,131 +10333,131 @@
         <v>19</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="20" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B19" s="20" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B20" s="20" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B21" s="20" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B22" s="20" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B23" s="20" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C24" s="20" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C25" s="20" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C26" s="20" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C27" s="20" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B28" s="16"/>
       <c r="C28" s="20" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B29" s="16"/>
       <c r="C29" s="20" t="s">
+        <v>398</v>
+      </c>
+      <c r="D29" s="16" t="s">
         <v>401</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B30" s="16"/>
       <c r="C30" s="20" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B31" s="16" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
@@ -10131,7 +10507,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet28"/>
   <dimension ref="A1:H42"/>
@@ -10153,23 +10529,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35" t="s">
-        <v>427</v>
+    <row r="2" spans="1:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="37" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>410</v>
-      </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
+      <c r="B3" s="38" t="s">
+        <v>407</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -10189,42 +10565,42 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="16" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="16" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="15" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10232,72 +10608,72 @@
       <c r="A11" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="39" t="s">
-        <v>414</v>
-      </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
+      <c r="B11" s="41" t="s">
+        <v>411</v>
+      </c>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
       <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
       <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
     </row>
     <row r="18" spans="1:7" ht="102" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -10305,70 +10681,70 @@
         <v>19</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="20" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B22" s="20" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B23" s="20" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B24" s="20" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B25" s="20" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B26" s="20" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D26" s="16"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B27" s="20" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D27" s="16"/>
     </row>
@@ -10450,7 +10826,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet29"/>
   <dimension ref="A1:H34"/>
@@ -10472,23 +10848,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35" t="s">
-        <v>429</v>
+    <row r="2" spans="1:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="37" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>440</v>
-      </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
+      <c r="B3" s="38" t="s">
+        <v>437</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -10508,18 +10884,18 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10527,72 +10903,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="39" t="s">
-        <v>435</v>
-      </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
+      <c r="B8" s="41" t="s">
+        <v>432</v>
+      </c>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
     </row>
     <row r="15" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -10600,36 +10976,36 @@
         <v>19</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B18" s="16" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D18" s="16"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B19" s="16" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D19" s="16"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B20" s="16" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D20" s="16"/>
     </row>
@@ -10707,7 +11083,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet30"/>
   <dimension ref="A1:H36"/>
@@ -10729,23 +11105,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35" t="s">
-        <v>439</v>
+    <row r="2" spans="1:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="37" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>428</v>
-      </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
+      <c r="B3" s="38" t="s">
+        <v>425</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -10765,18 +11141,18 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10784,72 +11160,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="39" t="s">
-        <v>438</v>
-      </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
+      <c r="B8" s="41" t="s">
+        <v>435</v>
+      </c>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
     </row>
     <row r="15" spans="1:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -10857,52 +11233,52 @@
         <v>19</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="16" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="16" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B20" s="16" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D20" s="16"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B21" s="16" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D21" s="16"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B22" s="16" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D22" s="16"/>
     </row>
@@ -10980,7 +11356,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet31"/>
   <dimension ref="A1:H20"/>
@@ -11002,23 +11378,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35" t="s">
-        <v>357</v>
+    <row r="2" spans="1:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="37" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>441</v>
-      </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
+      <c r="B3" s="38" t="s">
+        <v>438</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -11038,26 +11414,26 @@
         <v>18</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="16" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="16" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11065,72 +11441,72 @@
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="39" t="s">
-        <v>444</v>
-      </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
+      <c r="B9" s="41" t="s">
+        <v>441</v>
+      </c>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
       <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
     </row>
     <row r="16" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
     </row>
     <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11138,7 +11514,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C18" s="16"/>
     </row>
@@ -11165,7 +11541,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet32"/>
   <dimension ref="A1:H20"/>
@@ -11187,23 +11563,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35" t="s">
-        <v>357</v>
+    <row r="2" spans="1:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="37" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>445</v>
-      </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
+      <c r="B3" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -11223,26 +11599,26 @@
         <v>18</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="15" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="16" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11250,72 +11626,72 @@
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="39" t="s">
-        <v>444</v>
-      </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
+      <c r="B9" s="41" t="s">
+        <v>441</v>
+      </c>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
       <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
     </row>
     <row r="12" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
     </row>
     <row r="13" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
     </row>
     <row r="14" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
     </row>
     <row r="15" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
     </row>
     <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11323,7 +11699,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C18" s="16"/>
     </row>
@@ -11350,7 +11726,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet33"/>
   <dimension ref="A1:H36"/>
@@ -11372,23 +11748,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35" t="s">
-        <v>450</v>
+    <row r="2" spans="1:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="37" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>449</v>
-      </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
+      <c r="B3" s="38" t="s">
+        <v>446</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -11408,18 +11784,18 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11427,72 +11803,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="39" t="s">
-        <v>455</v>
-      </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
+      <c r="B8" s="41" t="s">
+        <v>452</v>
+      </c>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
     </row>
     <row r="15" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11500,26 +11876,26 @@
         <v>19</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="16" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="16" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
@@ -11632,8 +12008,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="37" t="s">
         <v>60</v>
       </c>
     </row>
@@ -11641,14 +12017,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -11677,72 +12053,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
     </row>
     <row r="15" spans="1:8" ht="101.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11833,8 +12209,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="37" t="s">
         <v>61</v>
       </c>
     </row>
@@ -11842,14 +12218,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -11878,72 +12254,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
     </row>
     <row r="15" spans="1:8" ht="101.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12057,8 +12433,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:7" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="37" t="s">
         <v>62</v>
       </c>
     </row>
@@ -12066,14 +12442,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -12096,191 +12472,191 @@
         <v>66</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="16" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="16" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>114</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="16" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="16" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="16" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="16" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="16" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="16" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="16" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="16" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="16" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="16" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="16" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="16" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12288,72 +12664,72 @@
       <c r="A30" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
       <c r="H30" s="14"/>
     </row>
     <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
       <c r="H31" s="14"/>
     </row>
     <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
     </row>
     <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
     </row>
     <row r="34" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
     </row>
     <row r="35" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
     </row>
     <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
     </row>
     <row r="37" spans="1:7" ht="101.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
     </row>
     <row r="38" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="39" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12418,23 +12794,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35" t="s">
-        <v>470</v>
+    <row r="2" spans="1:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="37" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>471</v>
-      </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
+      <c r="B3" s="38" t="s">
+        <v>468</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -12463,72 +12839,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
     </row>
     <row r="13" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
     </row>
     <row r="14" spans="1:8" ht="1.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
     </row>
     <row r="15" spans="1:8" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12575,23 +12951,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35" t="s">
-        <v>472</v>
+    <row r="2" spans="1:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="37" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>474</v>
-      </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
+      <c r="B3" s="38" t="s">
+        <v>471</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -12620,72 +12996,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
     </row>
     <row r="13" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
     </row>
     <row r="14" spans="1:8" ht="1.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
     </row>
     <row r="15" spans="1:8" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12732,23 +13108,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35" t="s">
-        <v>473</v>
+    <row r="2" spans="1:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="37" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>475</v>
-      </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
+      <c r="B3" s="38" t="s">
+        <v>472</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -12777,72 +13153,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
     </row>
     <row r="13" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
     </row>
     <row r="14" spans="1:8" ht="1.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
     </row>
     <row r="15" spans="1:8" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">

--- a/2019-06-16.xlsx
+++ b/2019-06-16.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tcyy\tcyy.bate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\ttyc\tcyy.bate0530\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050" firstSheet="34" activeTab="38"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="28" r:id="rId1"/>
@@ -41,7 +41,7 @@
     <sheet name="基础数据-查询字典列表" sheetId="51" r:id="rId27"/>
     <sheet name="检查用户是否维护公司" sheetId="53" r:id="rId28"/>
     <sheet name="检查用户是否简历" sheetId="54" r:id="rId29"/>
-    <sheet name="获取登录用户发布的课程列表" sheetId="55" r:id="rId30"/>
+    <sheet name="获取登录用户发布的课程列表(下拉)" sheetId="55" r:id="rId30"/>
     <sheet name="课程视频发布" sheetId="56" r:id="rId31"/>
     <sheet name="查看课程详情" sheetId="57" r:id="rId32"/>
     <sheet name="搜索视频课程信息分页列表" sheetId="58" r:id="rId33"/>
@@ -50,13 +50,14 @@
     <sheet name="存储购买信息记录" sheetId="61" r:id="rId36"/>
     <sheet name="存储用户观看记录" sheetId="62" r:id="rId37"/>
     <sheet name="获取当前用户观看记录" sheetId="63" r:id="rId38"/>
+    <sheet name="获取当前用户发布的课程列表(分页)" sheetId="69" r:id="rId39"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="515">
   <si>
     <t>目录</t>
   </si>
@@ -2358,10 +2359,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1.获取登录用户发布的课程列表 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>2.课程视频发布</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -3495,6 +3492,121 @@
   </si>
   <si>
     <t>15.根据用户获取简历信息(不包含教育、工作、证书)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.获取当前登录用户发布的课程列表(下拉)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7.获取当前用户发布的课程列表</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(分页)</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>http://m.tianchiyueya.com:1888/tcyy/courses</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/getCoursesListByCurrentUser</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctype</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程类型</t>
+  </si>
+  <si>
+    <t>课程分类</t>
+  </si>
+  <si>
+    <t>gid</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价</t>
+  </si>
+  <si>
+    <t>买断价</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>creattime</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布时间</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程名称</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+    "header": {
+        "status": 2001,
+        "msg": "查询成功",
+        "t": "2019-06-19 21:52:28"
+    },
+    "body": [ 
+          "id":"11",
+          "title":"培育良好的习惯",
+          "ctype":"1",
+          "gid":"1",
+          "price":"10.00",
+          "creattime":"2019-08-08",
+          "oneprice":"20.00"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+    ]
+}</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取当前用户发布的课程列表(分页)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3647,7 +3759,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3753,6 +3865,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3773,6 +3888,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4080,10 +4198,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="30.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4117,12 +4235,12 @@
     </row>
     <row r="4" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="30" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="30" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -4137,12 +4255,12 @@
     </row>
     <row r="8" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -4190,7 +4308,7 @@
     </row>
     <row r="18" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="18" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -4200,32 +4318,32 @@
     </row>
     <row r="20" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="29" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="29" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="29" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="29" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="33" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -4297,46 +4415,46 @@
       </c>
     </row>
     <row r="37" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="29" t="s">
-        <v>336</v>
+      <c r="B37" s="43" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="29" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="29" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="29" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="29" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="29" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="4" t="s">
+      <c r="B43" s="43" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>340</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="29" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -4346,7 +4464,12 @@
     </row>
     <row r="46" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="29" t="s">
-        <v>344</v>
+        <v>341</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B47" s="29" t="s">
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -4386,9 +4509,9 @@
     <hyperlink ref="B40" location="搜索视频课程信息分页列表!A1" display="4.搜索视频课程信息"/>
     <hyperlink ref="B41" location="存储用户观看记录!A1" display="5.存储用户观看记录"/>
     <hyperlink ref="B42" location="获取当前用户观看记录!A1" display="6.获取当前用户观看记录"/>
-    <hyperlink ref="B44" location="获取当前用户购买的课程记录!A1" display="1.获取当前用户购买的课程记录"/>
-    <hyperlink ref="B45" location="获取当前用户售卖的课程记录!A1" display="2.获取当前用户售卖的课程记录"/>
-    <hyperlink ref="B46" location="存储购买信息记录!A1" display="3.存储购买信息记录"/>
+    <hyperlink ref="B45" location="获取当前用户购买的课程记录!A1" display="1.获取当前用户购买的课程记录"/>
+    <hyperlink ref="B46" location="获取当前用户售卖的课程记录!A1" display="2.获取当前用户售卖的课程记录"/>
+    <hyperlink ref="B47" location="存储购买信息记录!A1" display="3.存储购买信息记录"/>
     <hyperlink ref="B25" location="根据登录用户获取个人简历!A1" display="15.根据用户获取简历信息(不包含教育、工作、证书)"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -4415,26 +4538,26 @@
   <sheetData>
     <row r="1" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="37" t="s">
-        <v>474</v>
+        <v>464</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="38" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="38" t="s">
-        <v>473</v>
-      </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
+      <c r="B3" s="39" t="s">
+        <v>472</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -4473,72 +4596,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="41" t="s">
-        <v>475</v>
-      </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
+      <c r="B8" s="42" t="s">
+        <v>474</v>
+      </c>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
     </row>
     <row r="15" spans="1:8" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4557,36 +4680,36 @@
     </row>
     <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="D18" s="16" t="s">
         <v>476</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C19" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="D19" s="16" t="s">
         <v>478</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B20" s="16"/>
       <c r="C20" s="16" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B21" s="16"/>
       <c r="C21" s="16" t="s">
+        <v>481</v>
+      </c>
+      <c r="D21" s="16" t="s">
         <v>482</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
@@ -4641,23 +4764,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="37" t="s">
-        <v>461</v>
+    <row r="2" spans="1:8" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="38" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="38" t="s">
-        <v>462</v>
-      </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
+      <c r="B3" s="39" t="s">
+        <v>461</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -4680,7 +4803,7 @@
         <v>219</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4689,72 +4812,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="41" t="s">
-        <v>463</v>
-      </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
+      <c r="B8" s="42" t="s">
+        <v>462</v>
+      </c>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
     </row>
     <row r="12" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
     </row>
     <row r="13" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
     </row>
     <row r="14" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
     </row>
     <row r="15" spans="1:8" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4804,8 +4927,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="37" t="s">
+    <row r="2" spans="1:8" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="38" t="s">
         <v>90</v>
       </c>
     </row>
@@ -4813,14 +4936,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -4899,72 +5022,72 @@
       <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
       <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
     </row>
     <row r="20" spans="1:7" ht="101.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
     </row>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5022,8 +5145,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="37" t="s">
+    <row r="2" spans="1:8" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="38" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5031,14 +5154,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -5117,72 +5240,72 @@
       <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
       <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
     </row>
     <row r="20" spans="1:7" ht="101.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
     </row>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5248,8 +5371,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="37" t="s">
+    <row r="2" spans="1:8" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="38" t="s">
         <v>91</v>
       </c>
     </row>
@@ -5257,14 +5380,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -5325,72 +5448,72 @@
       <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
       <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
     </row>
     <row r="19" spans="1:7" ht="101.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5446,23 +5569,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="37" t="s">
-        <v>493</v>
+    <row r="2" spans="1:8" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="38" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="38" t="s">
-        <v>494</v>
-      </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
+      <c r="B3" s="39" t="s">
+        <v>493</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -5491,72 +5614,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
     </row>
     <row r="15" spans="1:8" ht="274.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5784,23 +5907,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="37" t="s">
-        <v>495</v>
+    <row r="2" spans="1:8" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="38" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="38" t="s">
-        <v>496</v>
-      </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
+      <c r="B3" s="39" t="s">
+        <v>495</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -5827,72 +5950,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="41" t="s">
-        <v>497</v>
-      </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
+      <c r="B8" s="42" t="s">
+        <v>496</v>
+      </c>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
     </row>
     <row r="15" spans="1:8" ht="274.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6109,8 +6232,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="37" t="s">
+    <row r="2" spans="1:8" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="38" t="s">
         <v>160</v>
       </c>
     </row>
@@ -6118,14 +6241,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -6154,72 +6277,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
     </row>
     <row r="15" spans="1:8" ht="83.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6384,8 +6507,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="37" t="s">
+    <row r="2" spans="1:8" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="38" t="s">
         <v>161</v>
       </c>
     </row>
@@ -6393,14 +6516,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -6429,72 +6552,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="42" t="s">
         <v>163</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
     </row>
     <row r="15" spans="1:8" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6659,8 +6782,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="37" t="s">
+    <row r="2" spans="1:8" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="38" t="s">
         <v>172</v>
       </c>
     </row>
@@ -6668,14 +6791,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -6704,72 +6827,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="42" t="s">
         <v>174</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
     </row>
     <row r="15" spans="1:8" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6911,8 +7034,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="34" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="34" t="s">
+    <row r="2" spans="1:7" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="35" t="s">
         <v>2</v>
       </c>
     </row>
@@ -6920,70 +7043,70 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
@@ -7054,8 +7177,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="37" t="s">
+    <row r="2" spans="1:7" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="38" t="s">
         <v>185</v>
       </c>
     </row>
@@ -7063,14 +7186,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -7178,72 +7301,72 @@
       <c r="A17" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="42" t="s">
         <v>213</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
       <c r="H17" s="14"/>
     </row>
     <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
       <c r="H18" s="14"/>
     </row>
     <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
     </row>
     <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
     </row>
     <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
     </row>
     <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
     </row>
     <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
     </row>
     <row r="24" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
     </row>
     <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7309,8 +7432,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="37" t="s">
+    <row r="2" spans="1:8" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="38" t="s">
         <v>216</v>
       </c>
     </row>
@@ -7318,14 +7441,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>207</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -7354,72 +7477,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="42" t="s">
         <v>212</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
     </row>
     <row r="15" spans="1:8" ht="150.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7600,8 +7723,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="37" t="s">
+    <row r="2" spans="1:8" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="38" t="s">
         <v>215</v>
       </c>
     </row>
@@ -7609,14 +7732,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -7645,72 +7768,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="42" t="s">
         <v>217</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
     </row>
     <row r="15" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7849,8 +7972,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="37" t="s">
+    <row r="2" spans="1:8" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="38" t="s">
         <v>265</v>
       </c>
     </row>
@@ -7858,14 +7981,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>248</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -7913,72 +8036,72 @@
       <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="42" t="s">
         <v>255</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
       <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
       <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
     </row>
     <row r="17" spans="1:7" ht="196.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8102,8 +8225,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="37" t="s">
+    <row r="2" spans="1:8" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="38" t="s">
         <v>272</v>
       </c>
     </row>
@@ -8111,14 +8234,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>266</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -8192,72 +8315,72 @@
       <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="42" t="s">
         <v>278</v>
       </c>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
       <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
     </row>
     <row r="20" spans="1:7" ht="196.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
     </row>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8405,11 +8528,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="37" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="38" t="s">
         <v>297</v>
       </c>
     </row>
@@ -8417,14 +8540,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="38" t="s">
-        <v>484</v>
-      </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
+      <c r="B3" s="39" t="s">
+        <v>483</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -8463,72 +8586,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="42" t="s">
         <v>308</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
     </row>
     <row r="15" spans="1:8" ht="196.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8652,8 +8775,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="37" t="s">
+    <row r="2" spans="1:8" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="38" t="s">
         <v>296</v>
       </c>
     </row>
@@ -8661,14 +8784,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>312</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -8700,72 +8823,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="42" t="s">
         <v>315</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
     </row>
     <row r="15" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8825,8 +8948,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="37" t="s">
+    <row r="2" spans="1:8" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="38" t="s">
         <v>295</v>
       </c>
     </row>
@@ -8834,14 +8957,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>317</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -8870,72 +8993,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="42" t="s">
         <v>318</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
     </row>
     <row r="15" spans="1:8" ht="196.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8996,8 +9119,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="37" t="s">
+    <row r="2" spans="1:8" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="38" t="s">
         <v>326</v>
       </c>
     </row>
@@ -9005,14 +9128,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>331</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -9041,72 +9164,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
     </row>
     <row r="15" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -9255,8 +9378,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="37" t="s">
+    <row r="2" spans="1:8" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="38" t="s">
         <v>326</v>
       </c>
     </row>
@@ -9264,14 +9387,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>330</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -9300,72 +9423,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="42" t="s">
         <v>333</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
     </row>
     <row r="15" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -9379,12 +9502,12 @@
         <v>2001</v>
       </c>
       <c r="D17" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="19" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -9395,7 +9518,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
@@ -9404,7 +9527,7 @@
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
@@ -9413,7 +9536,7 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
@@ -9525,8 +9648,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="37" t="s">
+    <row r="2" spans="1:7" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="38" t="s">
         <v>59</v>
       </c>
     </row>
@@ -9534,14 +9657,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -9660,72 +9783,72 @@
       <c r="A18" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
       <c r="H18" s="14"/>
     </row>
     <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
       <c r="H19" s="14"/>
     </row>
     <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
     </row>
     <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
     </row>
     <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
     </row>
     <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
     </row>
     <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
     </row>
     <row r="25" spans="1:8" ht="101.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
     </row>
     <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -9775,9 +9898,7 @@
   <sheetPr codeName="Sheet25"/>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -9793,23 +9914,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="37" t="s">
-        <v>348</v>
+    <row r="2" spans="1:8" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="38" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="38" t="s">
-        <v>347</v>
-      </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
+      <c r="B3" s="39" t="s">
+        <v>346</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -9829,7 +9950,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C5" s="16"/>
     </row>
@@ -9839,72 +9960,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="41" t="s">
-        <v>350</v>
-      </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
+      <c r="B8" s="42" t="s">
+        <v>349</v>
+      </c>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
     </row>
     <row r="15" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -9920,10 +10041,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B18" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="C18" s="16" t="s">
         <v>351</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -9963,23 +10084,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="37" t="s">
-        <v>354</v>
+    <row r="2" spans="1:7" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="38" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="38" t="s">
-        <v>353</v>
-      </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
+      <c r="B3" s="39" t="s">
+        <v>352</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -9999,90 +10120,90 @@
         <v>18</v>
       </c>
       <c r="B5" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>356</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="15" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="15" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="15" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>361</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>365</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>367</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>369</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>371</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="C14" s="16" t="s">
         <v>373</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="C15" s="16" t="s">
         <v>375</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10090,72 +10211,72 @@
       <c r="A17" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="41" t="s">
-        <v>377</v>
-      </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
+      <c r="B17" s="42" t="s">
+        <v>376</v>
+      </c>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
       <c r="H17" s="14"/>
     </row>
     <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
       <c r="H18" s="14"/>
     </row>
     <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
     </row>
     <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
     </row>
     <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
     </row>
     <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
     </row>
     <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
     </row>
     <row r="24" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
     </row>
     <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -10163,7 +10284,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C26" s="16"/>
     </row>
@@ -10212,23 +10333,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="37" t="s">
-        <v>379</v>
+    <row r="2" spans="1:8" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="38" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="38" t="s">
-        <v>380</v>
-      </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
+      <c r="B3" s="39" t="s">
+        <v>379</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -10248,10 +10369,10 @@
         <v>18</v>
       </c>
       <c r="B5" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>381</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10260,72 +10381,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="41" t="s">
-        <v>385</v>
-      </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
+      <c r="B8" s="42" t="s">
+        <v>384</v>
+      </c>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
     </row>
     <row r="15" spans="1:8" ht="207.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -10336,15 +10457,15 @@
         <v>210</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="C18" s="16" t="s">
         <v>383</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>384</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>96</v>
@@ -10352,69 +10473,69 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B19" s="20" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B20" s="20" t="s">
+        <v>386</v>
+      </c>
+      <c r="C20" s="16" t="s">
         <v>387</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B21" s="20" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B22" s="20" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B23" s="20" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>210</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C24" s="20" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C25" s="20" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C26" s="20" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
@@ -10422,42 +10543,42 @@
         <v>196</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B28" s="16"/>
       <c r="C28" s="20" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B29" s="16"/>
       <c r="C29" s="20" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B30" s="16"/>
       <c r="C30" s="20" t="s">
+        <v>398</v>
+      </c>
+      <c r="D30" s="16" t="s">
         <v>399</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B31" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="C31" s="20" t="s">
         <v>405</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
@@ -10529,23 +10650,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="37" t="s">
-        <v>424</v>
+    <row r="2" spans="1:8" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="38" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="38" t="s">
-        <v>407</v>
-      </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
+      <c r="B3" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -10581,26 +10702,26 @@
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="16" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="16" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10608,72 +10729,72 @@
       <c r="A11" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="41" t="s">
-        <v>411</v>
-      </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
+      <c r="B11" s="42" t="s">
+        <v>410</v>
+      </c>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
       <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
       <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
     </row>
     <row r="18" spans="1:7" ht="102" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -10684,15 +10805,15 @@
         <v>196</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="20" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>96</v>
@@ -10700,51 +10821,51 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B22" s="20" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B23" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="C23" s="16" t="s">
         <v>416</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B24" s="20" t="s">
+        <v>417</v>
+      </c>
+      <c r="C24" s="16" t="s">
         <v>418</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B25" s="20" t="s">
+        <v>419</v>
+      </c>
+      <c r="C25" s="16" t="s">
         <v>420</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B26" s="20" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D26" s="16"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B27" s="20" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D27" s="16"/>
     </row>
@@ -10848,23 +10969,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="37" t="s">
-        <v>426</v>
+    <row r="2" spans="1:8" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="38" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="38" t="s">
-        <v>437</v>
-      </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
+      <c r="B3" s="39" t="s">
+        <v>436</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -10903,72 +11024,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="41" t="s">
-        <v>432</v>
-      </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
+      <c r="B8" s="42" t="s">
+        <v>431</v>
+      </c>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
     </row>
     <row r="15" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -10984,28 +11105,28 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B18" s="16" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D18" s="16"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B19" s="16" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D19" s="16"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B20" s="16" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D20" s="16"/>
     </row>
@@ -11105,23 +11226,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="37" t="s">
-        <v>436</v>
+    <row r="2" spans="1:8" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="38" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="38" t="s">
-        <v>425</v>
-      </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
+      <c r="B3" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -11160,72 +11281,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="41" t="s">
-        <v>435</v>
-      </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
+      <c r="B8" s="42" t="s">
+        <v>434</v>
+      </c>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
     </row>
     <row r="15" spans="1:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11244,41 +11365,41 @@
         <v>196</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="16" t="s">
+        <v>432</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>433</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B20" s="16" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D20" s="16"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B21" s="16" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D21" s="16"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B22" s="16" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D22" s="16"/>
     </row>
@@ -11362,7 +11483,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11378,23 +11499,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="37" t="s">
-        <v>354</v>
+    <row r="2" spans="1:8" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="38" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="38" t="s">
-        <v>438</v>
-      </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
+      <c r="B3" s="39" t="s">
+        <v>437</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -11414,26 +11535,26 @@
         <v>18</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="16" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11441,72 +11562,72 @@
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="41" t="s">
-        <v>441</v>
-      </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
+      <c r="B9" s="42" t="s">
+        <v>440</v>
+      </c>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
       <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
     </row>
     <row r="16" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
     </row>
     <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11514,7 +11635,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C18" s="16"/>
     </row>
@@ -11563,23 +11684,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="37" t="s">
-        <v>354</v>
+    <row r="2" spans="1:8" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="38" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
+      <c r="B3" s="39" t="s">
+        <v>441</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -11599,26 +11720,26 @@
         <v>18</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>444</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11626,72 +11747,72 @@
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="41" t="s">
-        <v>441</v>
-      </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
+      <c r="B9" s="42" t="s">
+        <v>440</v>
+      </c>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
       <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
     </row>
     <row r="12" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
     </row>
     <row r="13" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
     </row>
     <row r="14" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
     </row>
     <row r="15" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
     </row>
     <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11699,7 +11820,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C18" s="16"/>
     </row>
@@ -11732,7 +11853,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11748,23 +11869,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="37" t="s">
-        <v>447</v>
+    <row r="2" spans="1:8" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="38" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="38" t="s">
-        <v>446</v>
-      </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
+      <c r="B3" s="39" t="s">
+        <v>445</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -11803,72 +11924,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="41" t="s">
-        <v>452</v>
-      </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
+      <c r="B8" s="42" t="s">
+        <v>451</v>
+      </c>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
     </row>
     <row r="15" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11884,18 +12005,18 @@
     </row>
     <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="16" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="16" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
@@ -11915,6 +12036,283 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C23" s="20"/>
+      <c r="D23" s="16"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C24" s="20"/>
+      <c r="D24" s="16"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B25" s="16"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="16"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B26" s="16"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="16"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B27" s="16"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="16"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B28" s="16"/>
+      <c r="C28" s="20"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:XFD2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B8:G15"/>
+  </mergeCells>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="A1" location="目录!A35" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="26.75" customWidth="1"/>
+    <col min="7" max="7" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="38" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>501</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>513</v>
+      </c>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="14"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+    </row>
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+    </row>
+    <row r="15" spans="1:8" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="16" t="s">
+        <v>502</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="16" t="s">
+        <v>503</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B20" s="16" t="s">
+        <v>506</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>505</v>
+      </c>
+      <c r="D20" s="16"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B21" s="16" t="s">
+        <v>509</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>507</v>
+      </c>
+      <c r="D21" s="16"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B22" s="16" t="s">
+        <v>510</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="D22" s="16"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B23" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>508</v>
+      </c>
       <c r="D23" s="16"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
@@ -12008,8 +12406,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="37" t="s">
+    <row r="2" spans="1:8" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="38" t="s">
         <v>60</v>
       </c>
     </row>
@@ -12017,14 +12415,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -12053,72 +12451,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
     </row>
     <row r="15" spans="1:8" ht="101.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12209,8 +12607,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="37" t="s">
+    <row r="2" spans="1:8" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="38" t="s">
         <v>61</v>
       </c>
     </row>
@@ -12218,14 +12616,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -12254,72 +12652,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
     </row>
     <row r="15" spans="1:8" ht="101.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12433,8 +12831,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="37" t="s">
+    <row r="2" spans="1:7" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="38" t="s">
         <v>62</v>
       </c>
     </row>
@@ -12442,14 +12840,14 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -12645,7 +13043,7 @@
     </row>
     <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="16" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C27" s="16" t="s">
         <v>142</v>
@@ -12653,10 +13051,10 @@
     </row>
     <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="16" t="s">
+        <v>485</v>
+      </c>
+      <c r="C28" s="16" t="s">
         <v>486</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12664,72 +13062,72 @@
       <c r="A30" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
       <c r="H30" s="14"/>
     </row>
     <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
       <c r="H31" s="14"/>
     </row>
     <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
     </row>
     <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
     </row>
     <row r="34" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="40"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
     </row>
     <row r="35" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="40"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
     </row>
     <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="40"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="40"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
     </row>
     <row r="37" spans="1:7" ht="101.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="40"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="40"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="40"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
     </row>
     <row r="38" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="39" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12794,23 +13192,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="37" t="s">
-        <v>467</v>
+    <row r="2" spans="1:8" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="38" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="38" t="s">
-        <v>468</v>
-      </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
+      <c r="B3" s="39" t="s">
+        <v>467</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -12839,72 +13237,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
     </row>
     <row r="13" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
     </row>
     <row r="14" spans="1:8" ht="1.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
     </row>
     <row r="15" spans="1:8" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12951,23 +13349,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="37" t="s">
-        <v>469</v>
+    <row r="2" spans="1:8" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="38" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="38" t="s">
-        <v>471</v>
-      </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
+      <c r="B3" s="39" t="s">
+        <v>470</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -12996,72 +13394,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
     </row>
     <row r="13" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
     </row>
     <row r="14" spans="1:8" ht="1.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
     </row>
     <row r="15" spans="1:8" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13108,23 +13506,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="37" t="s">
-        <v>470</v>
+    <row r="2" spans="1:8" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="38" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="38" t="s">
-        <v>472</v>
-      </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
+      <c r="B3" s="39" t="s">
+        <v>471</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -13153,72 +13551,72 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
     </row>
     <row r="13" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
     </row>
     <row r="14" spans="1:8" ht="1.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
     </row>
     <row r="15" spans="1:8" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
